--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_22_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_22_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2128889.894786503</v>
+        <v>2127284.0192561</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>64.13816154316291</v>
       </c>
       <c r="C11" t="n">
-        <v>234.1865775009919</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>223.5967273506674</v>
+        <v>223.5967273506672</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>250.844055802246</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>275.7897314716957</v>
       </c>
       <c r="G11" t="n">
-        <v>63.0332300820665</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>179.7541375993904</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>79.7701242648522</v>
+        <v>79.77012426485206</v>
       </c>
       <c r="U11" t="n">
-        <v>120.0356600810325</v>
+        <v>120.0356600810324</v>
       </c>
       <c r="V11" t="n">
-        <v>196.6659442001193</v>
+        <v>196.6659442001192</v>
       </c>
       <c r="W11" t="n">
-        <v>218.1546544473974</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>255.151624386038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35.44686937985173</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>41.62218471830013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>16.358751294623</v>
       </c>
       <c r="E12" t="n">
-        <v>26.55876618538534</v>
+        <v>26.5587661853852</v>
       </c>
       <c r="F12" t="n">
-        <v>13.98289812336827</v>
+        <v>13.98289812336813</v>
       </c>
       <c r="G12" t="n">
         <v>135.8475349287469</v>
       </c>
       <c r="H12" t="n">
-        <v>97.78740528786003</v>
+        <v>54.21143929561002</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,22 +1497,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>12.80964296121763</v>
+        <v>143.8959572312332</v>
       </c>
       <c r="T12" t="n">
-        <v>63.04855620782286</v>
+        <v>63.04855620782271</v>
       </c>
       <c r="U12" t="n">
-        <v>182.266996204878</v>
+        <v>94.75664792711277</v>
       </c>
       <c r="V12" t="n">
-        <v>101.7142728794097</v>
+        <v>101.7142728794095</v>
       </c>
       <c r="W12" t="n">
-        <v>120.608668890904</v>
+        <v>120.6086688909039</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>74.68667093346173</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1525,31 +1525,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.74566591192169</v>
+        <v>48.74566591192155</v>
       </c>
       <c r="C13" t="n">
-        <v>36.16050682861223</v>
+        <v>36.16050682861209</v>
       </c>
       <c r="D13" t="n">
-        <v>17.52915874819675</v>
+        <v>17.52915874819661</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>15.34764837655342</v>
       </c>
       <c r="F13" t="n">
-        <v>14.33473375291564</v>
+        <v>14.3347337529155</v>
       </c>
       <c r="G13" t="n">
-        <v>35.65048383636903</v>
+        <v>166.7367981063846</v>
       </c>
       <c r="H13" t="n">
-        <v>19.99004674171036</v>
+        <v>76.05599305205108</v>
       </c>
       <c r="I13" t="n">
-        <v>60.75451190537132</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>4.688565595032017</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07332503762846</v>
+        <v>71.07332503762832</v>
       </c>
       <c r="T13" t="n">
-        <v>91.50050071758552</v>
+        <v>91.50050071758538</v>
       </c>
       <c r="U13" t="n">
-        <v>155.1643051999985</v>
+        <v>155.1643051999984</v>
       </c>
       <c r="V13" t="n">
-        <v>121.0513290538124</v>
+        <v>121.0513290538123</v>
       </c>
       <c r="W13" t="n">
-        <v>155.4366840665754</v>
+        <v>155.4366840665753</v>
       </c>
       <c r="X13" t="n">
-        <v>94.62334111902155</v>
+        <v>94.6233411190214</v>
       </c>
       <c r="Y13" t="n">
-        <v>87.49833908207918</v>
+        <v>87.49833908207904</v>
       </c>
     </row>
     <row r="14">
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>251.6475273934649</v>
+        <v>251.6475273934648</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>73.72011496220563</v>
       </c>
       <c r="E14" t="n">
-        <v>250.8440558022461</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>231.4952333651196</v>
+        <v>275.7897314716957</v>
       </c>
       <c r="G14" t="n">
-        <v>281.4204412852648</v>
+        <v>281.4204412852647</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>14.22031640604268</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>120.0356600810324</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>238.6447864084533</v>
       </c>
       <c r="Y14" t="n">
-        <v>255.1516243860379</v>
+        <v>255.1516243860378</v>
       </c>
     </row>
     <row r="15">
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>82.3825995713643</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>41.62218471829999</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>16.358751294623</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>26.5587661853852</v>
       </c>
       <c r="F15" t="n">
-        <v>23.02840134302861</v>
+        <v>13.98289812336813</v>
       </c>
       <c r="G15" t="n">
-        <v>4.761220658731196</v>
+        <v>4.761220658731168</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>37.89022697185283</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>7.275709104097487</v>
       </c>
       <c r="S15" t="n">
-        <v>12.80964296121753</v>
+        <v>12.8096429612175</v>
       </c>
       <c r="T15" t="n">
-        <v>63.04855620782274</v>
+        <v>63.04855620782271</v>
       </c>
       <c r="U15" t="n">
-        <v>94.75664792711279</v>
+        <v>225.8429621971285</v>
       </c>
       <c r="V15" t="n">
-        <v>101.7142728794095</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>120.6086688909039</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>74.68667093346176</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1762,31 +1762,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.74566591192158</v>
+        <v>48.74566591192155</v>
       </c>
       <c r="C16" t="n">
-        <v>36.16050682861211</v>
+        <v>36.16050682861209</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>17.52915874819661</v>
       </c>
       <c r="E16" t="n">
-        <v>15.34764837655345</v>
+        <v>15.34764837655342</v>
       </c>
       <c r="F16" t="n">
-        <v>14.33473375291553</v>
+        <v>14.3347337529155</v>
       </c>
       <c r="G16" t="n">
-        <v>35.65048383636891</v>
+        <v>35.65048383636888</v>
       </c>
       <c r="H16" t="n">
-        <v>19.99004674171025</v>
+        <v>19.99004674171022</v>
       </c>
       <c r="I16" t="n">
-        <v>60.75451190537238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>4.688565595032017</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>120.9008416248183</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07332503762835</v>
+        <v>71.07332503762832</v>
       </c>
       <c r="T16" t="n">
-        <v>91.50050071758541</v>
+        <v>157.7519196731236</v>
       </c>
       <c r="U16" t="n">
         <v>155.1643051999984</v>
@@ -1828,10 +1828,10 @@
         <v>155.4366840665753</v>
       </c>
       <c r="X16" t="n">
-        <v>94.62334111902143</v>
+        <v>94.6233411190214</v>
       </c>
       <c r="Y16" t="n">
-        <v>87.49833908207907</v>
+        <v>87.49833908207904</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>144.8013995851666</v>
+        <v>144.8013995851665</v>
       </c>
       <c r="C17" t="n">
-        <v>127.3404496926936</v>
+        <v>127.3404496926935</v>
       </c>
       <c r="D17" t="n">
-        <v>116.750599542369</v>
+        <v>116.7505995423689</v>
       </c>
       <c r="E17" t="n">
-        <v>143.9979279939478</v>
+        <v>143.9979279939477</v>
       </c>
       <c r="F17" t="n">
-        <v>168.9436036633975</v>
+        <v>168.9436036633974</v>
       </c>
       <c r="G17" t="n">
-        <v>174.5743134769665</v>
+        <v>174.5743134769664</v>
       </c>
       <c r="H17" t="n">
-        <v>72.90800979109218</v>
+        <v>72.90800979109207</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>49.86555675053872</v>
+        <v>89.81981639182084</v>
       </c>
       <c r="W17" t="n">
-        <v>111.3085266390991</v>
+        <v>71.35426699781722</v>
       </c>
       <c r="X17" t="n">
-        <v>131.7986586001551</v>
+        <v>131.798658600155</v>
       </c>
       <c r="Y17" t="n">
-        <v>148.3054965777396</v>
+        <v>148.3054965777395</v>
       </c>
     </row>
     <row r="18">
@@ -1923,16 +1923,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1974,16 +1974,16 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>57.10120909909168</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.8429621971285</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>144.5718842048263</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>23.3207796761842</v>
+        <v>166.7367981063846</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>151.076361011726</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>120.9008416248183</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>202.1596393076441</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>222.5868149876011</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>48.31817739170016</v>
+        <v>286.2506194700141</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>117.4610853512426</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>48.59055625827693</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>144.8013995851666</v>
+        <v>144.8013995851665</v>
       </c>
       <c r="C20" t="n">
-        <v>127.3404496926936</v>
+        <v>127.3404496926935</v>
       </c>
       <c r="D20" t="n">
-        <v>116.750599542369</v>
+        <v>116.7505995423689</v>
       </c>
       <c r="E20" t="n">
-        <v>143.9979279939478</v>
+        <v>143.9979279939477</v>
       </c>
       <c r="F20" t="n">
-        <v>168.9436036633975</v>
+        <v>168.9436036633974</v>
       </c>
       <c r="G20" t="n">
-        <v>174.5743134769665</v>
+        <v>174.5743134769664</v>
       </c>
       <c r="H20" t="n">
-        <v>72.90800979109218</v>
+        <v>72.90800979109207</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>13.18953227273417</v>
+        <v>13.18953227273406</v>
       </c>
       <c r="V20" t="n">
-        <v>36.67602447780481</v>
+        <v>89.81981639182084</v>
       </c>
       <c r="W20" t="n">
-        <v>111.3085266390991</v>
+        <v>58.16473472508331</v>
       </c>
       <c r="X20" t="n">
-        <v>131.7986586001551</v>
+        <v>131.798658600155</v>
       </c>
       <c r="Y20" t="n">
-        <v>148.3054965777396</v>
+        <v>148.3054965777395</v>
       </c>
     </row>
     <row r="21">
@@ -2163,13 +2163,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>128.0559222861072</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2211,16 +2211,16 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>148.6295931004223</v>
       </c>
       <c r="U21" t="n">
         <v>225.8429621971285</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>13.76254108260554</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>120.9008416248183</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.7657875904343</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>222.5868149876011</v>
       </c>
       <c r="U22" t="n">
-        <v>189.4672572608422</v>
+        <v>286.2506194700141</v>
       </c>
       <c r="V22" t="n">
-        <v>14.20520124551405</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>48.59055625827693</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>144.8013995851666</v>
+        <v>144.8013995851665</v>
       </c>
       <c r="C23" t="n">
-        <v>127.3404496926936</v>
+        <v>127.3404496926935</v>
       </c>
       <c r="D23" t="n">
-        <v>116.750599542369</v>
+        <v>116.7505995423689</v>
       </c>
       <c r="E23" t="n">
-        <v>143.9979279939478</v>
+        <v>143.9979279939477</v>
       </c>
       <c r="F23" t="n">
-        <v>168.9436036633975</v>
+        <v>168.9436036633974</v>
       </c>
       <c r="G23" t="n">
-        <v>174.5743134769665</v>
+        <v>174.5743134769664</v>
       </c>
       <c r="H23" t="n">
-        <v>72.90800979109218</v>
+        <v>72.90800979109207</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>13.18953227273417</v>
+        <v>13.18953227273406</v>
       </c>
       <c r="V23" t="n">
-        <v>89.81981639182095</v>
+        <v>89.81981639182084</v>
       </c>
       <c r="W23" t="n">
-        <v>111.3085266390991</v>
+        <v>111.3085266390989</v>
       </c>
       <c r="X23" t="n">
-        <v>131.7986586001551</v>
+        <v>131.798658600155</v>
       </c>
       <c r="Y23" t="n">
-        <v>148.3054965777396</v>
+        <v>148.3054965777395</v>
       </c>
     </row>
     <row r="24">
@@ -2406,7 +2406,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>136.2558414272586</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>7.275709104097487</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>235.6059030906955</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2485,7 +2485,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>126.0196075590575</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>48.31817739170016</v>
+        <v>48.31817739170005</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>14.20520124551393</v>
       </c>
       <c r="W25" t="n">
-        <v>48.59055625827705</v>
+        <v>259.9965558357752</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>275.8877138551823</v>
+        <v>275.8877138551824</v>
       </c>
       <c r="C26" t="n">
-        <v>258.4267639627092</v>
+        <v>258.4267639627093</v>
       </c>
       <c r="D26" t="n">
-        <v>247.8369138123846</v>
+        <v>247.8369138123847</v>
       </c>
       <c r="E26" t="n">
-        <v>275.0842422639635</v>
+        <v>275.0842422639636</v>
       </c>
       <c r="F26" t="n">
-        <v>300.0299179334131</v>
+        <v>300.0299179334132</v>
       </c>
       <c r="G26" t="n">
-        <v>305.6606277469821</v>
+        <v>305.6606277469822</v>
       </c>
       <c r="H26" t="n">
-        <v>203.9943240611078</v>
+        <v>203.9943240611079</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>38.46050286776011</v>
+        <v>38.46050286776019</v>
       </c>
       <c r="T26" t="n">
-        <v>104.0103107265695</v>
+        <v>104.0103107265696</v>
       </c>
       <c r="U26" t="n">
-        <v>144.2758465427498</v>
+        <v>144.2758465427499</v>
       </c>
       <c r="V26" t="n">
-        <v>220.9061306618366</v>
+        <v>220.9061306618367</v>
       </c>
       <c r="W26" t="n">
-        <v>242.3948409091147</v>
+        <v>242.3948409091148</v>
       </c>
       <c r="X26" t="n">
-        <v>262.8849728701707</v>
+        <v>262.8849728701708</v>
       </c>
       <c r="Y26" t="n">
         <v>279.3918108477553</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>72.98585237363898</v>
+        <v>72.98585237363906</v>
       </c>
       <c r="C28" t="n">
-        <v>60.40069329032951</v>
+        <v>60.4006932903296</v>
       </c>
       <c r="D28" t="n">
-        <v>41.76934520991404</v>
+        <v>41.76934520991412</v>
       </c>
       <c r="E28" t="n">
-        <v>39.58783483827085</v>
+        <v>39.58783483827094</v>
       </c>
       <c r="F28" t="n">
-        <v>38.57492021463293</v>
+        <v>38.57492021463301</v>
       </c>
       <c r="G28" t="n">
-        <v>59.89067029808631</v>
+        <v>59.8906702980864</v>
       </c>
       <c r="H28" t="n">
-        <v>44.23023320342764</v>
+        <v>44.23023320342773</v>
       </c>
       <c r="I28" t="n">
-        <v>10.88769637476712</v>
+        <v>10.88769637476721</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>14.05471381651999</v>
+        <v>14.05471381652008</v>
       </c>
       <c r="S28" t="n">
-        <v>95.31351149934575</v>
+        <v>95.31351149934584</v>
       </c>
       <c r="T28" t="n">
-        <v>115.7406871793028</v>
+        <v>115.7406871793029</v>
       </c>
       <c r="U28" t="n">
-        <v>179.4044916617158</v>
+        <v>179.4044916617159</v>
       </c>
       <c r="V28" t="n">
-        <v>145.2915155155297</v>
+        <v>145.2915155155298</v>
       </c>
       <c r="W28" t="n">
-        <v>179.6768705282927</v>
+        <v>179.6768705282928</v>
       </c>
       <c r="X28" t="n">
-        <v>118.8635275807388</v>
+        <v>118.8635275807389</v>
       </c>
       <c r="Y28" t="n">
-        <v>111.7385255437965</v>
+        <v>111.7385255437966</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>38.46050286776019</v>
+        <v>38.4605028677602</v>
       </c>
       <c r="T29" t="n">
         <v>104.0103107265696</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>275.8877138551823</v>
+        <v>275.8877138551824</v>
       </c>
       <c r="C32" t="n">
         <v>258.4267639627093</v>
@@ -3035,7 +3035,7 @@
         <v>247.8369138123847</v>
       </c>
       <c r="E32" t="n">
-        <v>275.0842422639635</v>
+        <v>275.0842422639636</v>
       </c>
       <c r="F32" t="n">
         <v>300.0299179334132</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>38.46050286776018</v>
+        <v>38.4605028677602</v>
       </c>
       <c r="T32" t="n">
         <v>104.0103107265696</v>
@@ -3086,10 +3086,10 @@
         <v>144.2758465427499</v>
       </c>
       <c r="V32" t="n">
-        <v>220.9061306618366</v>
+        <v>220.9061306618367</v>
       </c>
       <c r="W32" t="n">
-        <v>242.3948409091147</v>
+        <v>242.3948409091148</v>
       </c>
       <c r="X32" t="n">
         <v>262.8849728701708</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>72.98585237363905</v>
+        <v>72.98585237363906</v>
       </c>
       <c r="C34" t="n">
-        <v>60.40069329032958</v>
+        <v>60.4006932903296</v>
       </c>
       <c r="D34" t="n">
-        <v>41.76934520991411</v>
+        <v>41.76934520991412</v>
       </c>
       <c r="E34" t="n">
-        <v>39.58783483827092</v>
+        <v>39.58783483827094</v>
       </c>
       <c r="F34" t="n">
-        <v>38.574920214633</v>
+        <v>38.57492021463301</v>
       </c>
       <c r="G34" t="n">
-        <v>59.89067029808638</v>
+        <v>59.8906702980864</v>
       </c>
       <c r="H34" t="n">
-        <v>44.23023320342772</v>
+        <v>44.23023320342773</v>
       </c>
       <c r="I34" t="n">
-        <v>10.8876963747672</v>
+        <v>10.88769637476721</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>14.05471381652006</v>
+        <v>14.05471381652008</v>
       </c>
       <c r="S34" t="n">
-        <v>95.31351149934582</v>
+        <v>95.31351149934584</v>
       </c>
       <c r="T34" t="n">
         <v>115.7406871793029</v>
@@ -3244,16 +3244,16 @@
         <v>179.4044916617159</v>
       </c>
       <c r="V34" t="n">
-        <v>145.2915155155297</v>
+        <v>145.2915155155298</v>
       </c>
       <c r="W34" t="n">
-        <v>179.6768705282927</v>
+        <v>179.6768705282928</v>
       </c>
       <c r="X34" t="n">
         <v>118.8635275807389</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.7385255437965</v>
+        <v>111.7385255437966</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>171.8774031286127</v>
+        <v>171.8774031286128</v>
       </c>
       <c r="C35" t="n">
-        <v>154.4164532361397</v>
+        <v>154.4164532361398</v>
       </c>
       <c r="D35" t="n">
-        <v>143.8266030858151</v>
+        <v>143.8266030858152</v>
       </c>
       <c r="E35" t="n">
-        <v>171.0739315373939</v>
+        <v>171.073931537394</v>
       </c>
       <c r="F35" t="n">
-        <v>196.0196072068436</v>
+        <v>196.0196072068437</v>
       </c>
       <c r="G35" t="n">
-        <v>201.6503170204126</v>
+        <v>201.6503170204127</v>
       </c>
       <c r="H35" t="n">
-        <v>99.9840133345383</v>
+        <v>99.98401333453836</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>40.26553581618029</v>
+        <v>40.26553581618035</v>
       </c>
       <c r="V35" t="n">
         <v>116.8958199352671</v>
@@ -3329,7 +3329,7 @@
         <v>138.3845301825452</v>
       </c>
       <c r="X35" t="n">
-        <v>158.8746621436012</v>
+        <v>158.8746621436013</v>
       </c>
       <c r="Y35" t="n">
         <v>175.3815001211858</v>
@@ -3354,16 +3354,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>135.8475349287469</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>77.53323820817842</v>
+        <v>97.78740528786003</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>37.89022697185283</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,25 +3393,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>143.8959572312332</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>194.1348704778385</v>
       </c>
       <c r="U36" t="n">
-        <v>14.98652366226069</v>
+        <v>14.98652366226074</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>51.98077971298139</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>129.4770042951763</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>129.4770042951762</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>11.7303764527333</v>
+        <v>11.73037645273336</v>
       </c>
       <c r="U37" t="n">
         <v>286.2506194700141</v>
@@ -3484,13 +3484,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>75.66655980172322</v>
       </c>
       <c r="X37" t="n">
-        <v>14.85321685416932</v>
+        <v>14.85321685416937</v>
       </c>
       <c r="Y37" t="n">
-        <v>7.728214817226956</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>171.8774031286127</v>
+        <v>171.8774031286128</v>
       </c>
       <c r="C38" t="n">
         <v>154.4164532361397</v>
       </c>
       <c r="D38" t="n">
-        <v>143.8266030858151</v>
+        <v>143.8266030858152</v>
       </c>
       <c r="E38" t="n">
-        <v>171.0739315373939</v>
+        <v>171.073931537394</v>
       </c>
       <c r="F38" t="n">
         <v>196.0196072068436</v>
@@ -3518,7 +3518,7 @@
         <v>201.6503170204126</v>
       </c>
       <c r="H38" t="n">
-        <v>99.98401333453828</v>
+        <v>99.98401333453833</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>40.26553581618026</v>
+        <v>40.26553581618032</v>
       </c>
       <c r="V38" t="n">
-        <v>116.895819935267</v>
+        <v>116.8958199352671</v>
       </c>
       <c r="W38" t="n">
-        <v>138.3845301825451</v>
+        <v>138.3845301825452</v>
       </c>
       <c r="X38" t="n">
         <v>158.8746621436012</v>
       </c>
       <c r="Y38" t="n">
-        <v>175.3815001211857</v>
+        <v>175.3815001211858</v>
       </c>
     </row>
     <row r="39">
@@ -3588,7 +3588,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>37.89022697185283</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>7.275709104097487</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>143.8959572312332</v>
       </c>
       <c r="T39" t="n">
-        <v>194.1348704778385</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>191.8775067767484</v>
+        <v>39.3054034920033</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.7367981063846</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>151.076361011726</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>117.7338241830655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,22 +3712,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>222.5868149876011</v>
+        <v>11.73037645273333</v>
       </c>
       <c r="U40" t="n">
-        <v>75.39418093514625</v>
+        <v>75.39418093514631</v>
       </c>
       <c r="V40" t="n">
-        <v>87.57812657786076</v>
+        <v>41.2812047889602</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>75.6665598017232</v>
       </c>
       <c r="X40" t="n">
-        <v>14.85321685416929</v>
+        <v>117.9109558345956</v>
       </c>
       <c r="Y40" t="n">
-        <v>7.728214817226927</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>171.8774031286127</v>
+        <v>171.877403128612</v>
       </c>
       <c r="C41" t="n">
         <v>154.4164532361397</v>
       </c>
       <c r="D41" t="n">
-        <v>143.8266030858151</v>
+        <v>143.8266030858152</v>
       </c>
       <c r="E41" t="n">
-        <v>171.0739315373939</v>
+        <v>171.073931537394</v>
       </c>
       <c r="F41" t="n">
         <v>196.0196072068436</v>
@@ -3755,7 +3755,7 @@
         <v>201.6503170204126</v>
       </c>
       <c r="H41" t="n">
-        <v>99.98401333453828</v>
+        <v>99.98401333453833</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>40.2655358161809</v>
+        <v>40.26553581618032</v>
       </c>
       <c r="V41" t="n">
-        <v>116.895819935267</v>
+        <v>116.8958199352671</v>
       </c>
       <c r="W41" t="n">
-        <v>138.3845301825451</v>
+        <v>138.3845301825452</v>
       </c>
       <c r="X41" t="n">
         <v>158.8746621436012</v>
       </c>
       <c r="Y41" t="n">
-        <v>175.3815001211857</v>
+        <v>175.3815001211858</v>
       </c>
     </row>
     <row r="42">
@@ -3816,13 +3816,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>128.8411274587952</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3873,7 +3873,7 @@
         <v>194.1348704778385</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8429621971285</v>
+        <v>40.70584044141796</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3916,10 +3916,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>117.7338241830655</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>4.688565595032017</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3949,13 +3949,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>11.73037645273327</v>
+        <v>11.73037645273333</v>
       </c>
       <c r="U43" t="n">
-        <v>75.39418093514625</v>
+        <v>286.2506194700141</v>
       </c>
       <c r="V43" t="n">
-        <v>48.33581930603915</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>93.5956016761634</v>
       </c>
     </row>
     <row r="44">
@@ -4062,10 +4062,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>135.8475349287469</v>
@@ -4074,7 +4074,7 @@
         <v>97.78740528786003</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>37.89022697185283</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>55.43612939267346</v>
+        <v>114.4872100661274</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4119,7 +4119,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>146.6142117758409</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.7367981063846</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>4.688565595032017</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4186,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>11.73037645273333</v>
+        <v>222.5868149876011</v>
       </c>
       <c r="U46" t="n">
-        <v>75.39418093514631</v>
+        <v>286.2506194700141</v>
       </c>
       <c r="V46" t="n">
         <v>41.2812047889602</v>
@@ -4198,7 +4198,7 @@
         <v>75.6665598017232</v>
       </c>
       <c r="X46" t="n">
-        <v>91.67170536460543</v>
+        <v>14.85321685416935</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -5015,61 +5015,61 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>554.7434498879766</v>
+        <v>968.0445784640101</v>
       </c>
       <c r="C11" t="n">
-        <v>318.191351402126</v>
+        <v>968.0445784640101</v>
       </c>
       <c r="D11" t="n">
-        <v>92.33607124993658</v>
+        <v>742.1892983118209</v>
       </c>
       <c r="E11" t="n">
-        <v>92.33607124993658</v>
+        <v>488.8114641681381</v>
       </c>
       <c r="F11" t="n">
-        <v>92.33607124993658</v>
+        <v>210.235977833092</v>
       </c>
       <c r="G11" t="n">
-        <v>28.66614187411184</v>
+        <v>210.235977833092</v>
       </c>
       <c r="H11" t="n">
-        <v>28.66614187411184</v>
+        <v>28.66614187411183</v>
       </c>
       <c r="I11" t="n">
-        <v>28.66614187411184</v>
+        <v>28.66614187411183</v>
       </c>
       <c r="J11" t="n">
-        <v>84.36311551925041</v>
+        <v>84.36311551925053</v>
       </c>
       <c r="K11" t="n">
         <v>218.5769593083169</v>
       </c>
       <c r="L11" t="n">
-        <v>421.9828623864887</v>
+        <v>421.9828623864883</v>
       </c>
       <c r="M11" t="n">
-        <v>679.9805591267259</v>
+        <v>679.9805591267256</v>
       </c>
       <c r="N11" t="n">
-        <v>946.7667367073409</v>
+        <v>946.7667367073403</v>
       </c>
       <c r="O11" t="n">
-        <v>1185.35009778394</v>
+        <v>1185.350097783939</v>
       </c>
       <c r="P11" t="n">
-        <v>1354.47447578272</v>
+        <v>1354.474475782719</v>
       </c>
       <c r="Q11" t="n">
-        <v>1433.307093705592</v>
+        <v>1433.307093705591</v>
       </c>
       <c r="R11" t="n">
-        <v>1433.307093705592</v>
+        <v>1433.307093705591</v>
       </c>
       <c r="S11" t="n">
-        <v>1433.307093705592</v>
+        <v>1433.307093705591</v>
       </c>
       <c r="T11" t="n">
-        <v>1352.731210609782</v>
+        <v>1352.731210609781</v>
       </c>
       <c r="U11" t="n">
         <v>1231.483069113789</v>
@@ -5078,13 +5078,13 @@
         <v>1032.83060022478</v>
       </c>
       <c r="W11" t="n">
-        <v>812.472363409227</v>
+        <v>1032.83060022478</v>
       </c>
       <c r="X11" t="n">
-        <v>812.472363409227</v>
+        <v>1032.83060022478</v>
       </c>
       <c r="Y11" t="n">
-        <v>554.7434498879766</v>
+        <v>1032.83060022478</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>496.5892275390608</v>
+        <v>452.5731002741614</v>
       </c>
       <c r="C12" t="n">
-        <v>454.546616712495</v>
+        <v>278.1200709930343</v>
       </c>
       <c r="D12" t="n">
-        <v>305.6122070512437</v>
+        <v>261.5960797863444</v>
       </c>
       <c r="E12" t="n">
-        <v>278.7851705003495</v>
+        <v>234.7690432354503</v>
       </c>
       <c r="F12" t="n">
-        <v>264.6610309817956</v>
+        <v>220.6449037168966</v>
       </c>
       <c r="G12" t="n">
-        <v>127.4412987305361</v>
+        <v>83.42517146563711</v>
       </c>
       <c r="H12" t="n">
-        <v>28.66614187411184</v>
+        <v>28.66614187411183</v>
       </c>
       <c r="I12" t="n">
-        <v>28.66614187411184</v>
+        <v>28.66614187411183</v>
       </c>
       <c r="J12" t="n">
-        <v>167.8511558447005</v>
+        <v>101.1220941596262</v>
       </c>
       <c r="K12" t="n">
-        <v>270.5407722556475</v>
+        <v>203.8117105705732</v>
       </c>
       <c r="L12" t="n">
-        <v>454.9421753610947</v>
+        <v>388.2131136760202</v>
       </c>
       <c r="M12" t="n">
-        <v>689.4867833051356</v>
+        <v>622.7577216200611</v>
       </c>
       <c r="N12" t="n">
-        <v>944.6477340279401</v>
+        <v>877.9186723428656</v>
       </c>
       <c r="O12" t="n">
-        <v>1155.850359002606</v>
+        <v>1232.662178034999</v>
       </c>
       <c r="P12" t="n">
-        <v>1306.026019253825</v>
+        <v>1382.837838286219</v>
       </c>
       <c r="Q12" t="n">
-        <v>1433.307093705592</v>
+        <v>1433.307093705591</v>
       </c>
       <c r="R12" t="n">
-        <v>1433.307093705592</v>
+        <v>1433.307093705591</v>
       </c>
       <c r="S12" t="n">
-        <v>1420.368060411433</v>
+        <v>1287.957641956871</v>
       </c>
       <c r="T12" t="n">
-        <v>1356.6826501005</v>
+        <v>1224.272231645939</v>
       </c>
       <c r="U12" t="n">
-        <v>1172.574573125876</v>
+        <v>1128.558445860976</v>
       </c>
       <c r="V12" t="n">
-        <v>1069.832883348695</v>
+        <v>1025.816756083795</v>
       </c>
       <c r="W12" t="n">
-        <v>948.0059450750543</v>
+        <v>903.9898178101548</v>
       </c>
       <c r="X12" t="n">
-        <v>740.1544448695215</v>
+        <v>828.5487360591834</v>
       </c>
       <c r="Y12" t="n">
-        <v>532.3941461045677</v>
+        <v>620.7884372942294</v>
       </c>
     </row>
     <row r="13">
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>362.8614999142579</v>
+        <v>362.8614999142587</v>
       </c>
       <c r="C13" t="n">
-        <v>326.3357354409122</v>
+        <v>326.3357354409131</v>
       </c>
       <c r="D13" t="n">
-        <v>308.6295144831377</v>
+        <v>308.6295144831388</v>
       </c>
       <c r="E13" t="n">
-        <v>160.7164209007445</v>
+        <v>293.126839355307</v>
       </c>
       <c r="F13" t="n">
-        <v>146.2368918573954</v>
+        <v>278.6473103119581</v>
       </c>
       <c r="G13" t="n">
-        <v>110.2263021236893</v>
+        <v>110.2263021236907</v>
       </c>
       <c r="H13" t="n">
-        <v>90.03433571792125</v>
+        <v>33.40206671757851</v>
       </c>
       <c r="I13" t="n">
-        <v>28.66614187411184</v>
+        <v>33.40206671757851</v>
       </c>
       <c r="J13" t="n">
-        <v>28.66614187411184</v>
+        <v>28.66614187411183</v>
       </c>
       <c r="K13" t="n">
-        <v>150.8752725800539</v>
+        <v>150.8752725800538</v>
       </c>
       <c r="L13" t="n">
-        <v>362.7873193555494</v>
+        <v>362.7873193555492</v>
       </c>
       <c r="M13" t="n">
-        <v>596.6079835133991</v>
+        <v>596.6079835133989</v>
       </c>
       <c r="N13" t="n">
-        <v>830.3035313143096</v>
+        <v>830.3035313143093</v>
       </c>
       <c r="O13" t="n">
-        <v>1030.142898914446</v>
+        <v>1030.142898914445</v>
       </c>
       <c r="P13" t="n">
         <v>1177.619318985038</v>
@@ -5230,19 +5230,19 @@
         <v>1032.073282170226</v>
       </c>
       <c r="U13" t="n">
-        <v>875.3416607560864</v>
+        <v>875.3416607560865</v>
       </c>
       <c r="V13" t="n">
-        <v>753.0675910047607</v>
+        <v>753.067591004761</v>
       </c>
       <c r="W13" t="n">
-        <v>596.0608394223614</v>
+        <v>596.0608394223617</v>
       </c>
       <c r="X13" t="n">
-        <v>500.4817069789053</v>
+        <v>500.4817069789057</v>
       </c>
       <c r="Y13" t="n">
-        <v>412.0995462899364</v>
+        <v>412.099546289937</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>800.1406170787892</v>
+        <v>665.9694628025625</v>
       </c>
       <c r="C14" t="n">
-        <v>800.1406170787892</v>
+        <v>665.9694628025625</v>
       </c>
       <c r="D14" t="n">
-        <v>800.1406170787892</v>
+        <v>591.5047002144759</v>
       </c>
       <c r="E14" t="n">
-        <v>546.7627829351062</v>
+        <v>591.5047002144759</v>
       </c>
       <c r="F14" t="n">
-        <v>312.9292138794298</v>
+        <v>312.9292138794297</v>
       </c>
       <c r="G14" t="n">
-        <v>28.66614187411184</v>
+        <v>28.66614187411183</v>
       </c>
       <c r="H14" t="n">
-        <v>28.66614187411184</v>
+        <v>28.66614187411183</v>
       </c>
       <c r="I14" t="n">
-        <v>28.66614187411184</v>
+        <v>28.66614187411183</v>
       </c>
       <c r="J14" t="n">
-        <v>84.36311551925064</v>
+        <v>84.36311551925046</v>
       </c>
       <c r="K14" t="n">
-        <v>218.5769593083178</v>
+        <v>218.5769593083169</v>
       </c>
       <c r="L14" t="n">
-        <v>421.9828623864893</v>
+        <v>421.9828623864883</v>
       </c>
       <c r="M14" t="n">
-        <v>679.9805591267267</v>
+        <v>679.9805591267257</v>
       </c>
       <c r="N14" t="n">
-        <v>946.7667367073417</v>
+        <v>946.7667367073407</v>
       </c>
       <c r="O14" t="n">
         <v>1185.35009778394</v>
@@ -5300,28 +5300,28 @@
         <v>1433.307093705592</v>
       </c>
       <c r="R14" t="n">
-        <v>1433.307093705592</v>
+        <v>1433.307093705591</v>
       </c>
       <c r="S14" t="n">
-        <v>1433.307093705592</v>
+        <v>1418.943137739892</v>
       </c>
       <c r="T14" t="n">
-        <v>1433.307093705592</v>
+        <v>1418.943137739892</v>
       </c>
       <c r="U14" t="n">
-        <v>1312.0589522096</v>
+        <v>1418.943137739892</v>
       </c>
       <c r="V14" t="n">
-        <v>1312.0589522096</v>
+        <v>1418.943137739892</v>
       </c>
       <c r="W14" t="n">
-        <v>1312.0589522096</v>
+        <v>1418.943137739892</v>
       </c>
       <c r="X14" t="n">
-        <v>1312.0589522096</v>
+        <v>1177.887797933373</v>
       </c>
       <c r="Y14" t="n">
-        <v>1054.33003868835</v>
+        <v>920.1588844121229</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>577.6343176134735</v>
+        <v>132.9932337735133</v>
       </c>
       <c r="C15" t="n">
-        <v>403.1812883323465</v>
+        <v>90.9506229469477</v>
       </c>
       <c r="D15" t="n">
-        <v>254.2468786710953</v>
+        <v>74.42663174025779</v>
       </c>
       <c r="E15" t="n">
-        <v>95.00942366563976</v>
+        <v>47.59959518936365</v>
       </c>
       <c r="F15" t="n">
-        <v>71.74841220803511</v>
+        <v>33.47545567080998</v>
       </c>
       <c r="G15" t="n">
-        <v>66.93909841133693</v>
+        <v>28.66614187411183</v>
       </c>
       <c r="H15" t="n">
-        <v>66.93909841133693</v>
+        <v>28.66614187411183</v>
       </c>
       <c r="I15" t="n">
-        <v>28.66614187411184</v>
+        <v>28.66614187411183</v>
       </c>
       <c r="J15" t="n">
-        <v>167.8511558447005</v>
+        <v>43.02103085769572</v>
       </c>
       <c r="K15" t="n">
-        <v>270.5407722556474</v>
+        <v>145.7106472686427</v>
       </c>
       <c r="L15" t="n">
-        <v>454.9421753610944</v>
+        <v>330.1120503740897</v>
       </c>
       <c r="M15" t="n">
-        <v>689.4867833051353</v>
+        <v>564.6566583181307</v>
       </c>
       <c r="N15" t="n">
-        <v>944.6477340279398</v>
+        <v>819.8176090409352</v>
       </c>
       <c r="O15" t="n">
-        <v>1155.850359002606</v>
+        <v>1031.020234015601</v>
       </c>
       <c r="P15" t="n">
-        <v>1306.026019253825</v>
+        <v>1181.19589426682</v>
       </c>
       <c r="Q15" t="n">
-        <v>1433.307093705592</v>
+        <v>1433.307093705591</v>
       </c>
       <c r="R15" t="n">
-        <v>1425.957892590342</v>
+        <v>1425.957892590341</v>
       </c>
       <c r="S15" t="n">
-        <v>1413.018859296183</v>
+        <v>1413.018859296182</v>
       </c>
       <c r="T15" t="n">
-        <v>1349.333448985251</v>
+        <v>1349.33344898525</v>
       </c>
       <c r="U15" t="n">
-        <v>1253.619663200289</v>
+        <v>1121.209244745726</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.877973423107</v>
+        <v>886.0571365139838</v>
       </c>
       <c r="W15" t="n">
-        <v>1029.051035149467</v>
+        <v>631.8197797857822</v>
       </c>
       <c r="X15" t="n">
-        <v>953.6099533984955</v>
+        <v>423.9682795802494</v>
       </c>
       <c r="Y15" t="n">
-        <v>745.8496546335416</v>
+        <v>216.2079808152955</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>362.8614999142583</v>
+        <v>173.818812459353</v>
       </c>
       <c r="C16" t="n">
-        <v>326.3357354409127</v>
+        <v>137.2930479860075</v>
       </c>
       <c r="D16" t="n">
-        <v>176.219096028577</v>
+        <v>119.5868270282331</v>
       </c>
       <c r="E16" t="n">
-        <v>160.7164209007452</v>
+        <v>104.0841519004014</v>
       </c>
       <c r="F16" t="n">
-        <v>146.2368918573962</v>
+        <v>89.60462285705236</v>
       </c>
       <c r="G16" t="n">
-        <v>110.2263021236903</v>
+        <v>53.59403312334641</v>
       </c>
       <c r="H16" t="n">
-        <v>90.03433571792233</v>
+        <v>33.40206671757851</v>
       </c>
       <c r="I16" t="n">
-        <v>28.66614187411184</v>
+        <v>33.40206671757851</v>
       </c>
       <c r="J16" t="n">
-        <v>28.66614187411184</v>
+        <v>28.66614187411183</v>
       </c>
       <c r="K16" t="n">
         <v>150.8752725800538</v>
@@ -5458,28 +5458,28 @@
         <v>1196.289267781553</v>
       </c>
       <c r="R16" t="n">
-        <v>1196.289267781553</v>
+        <v>1074.167205534262</v>
       </c>
       <c r="S16" t="n">
-        <v>1124.498030369807</v>
+        <v>1002.375968122516</v>
       </c>
       <c r="T16" t="n">
-        <v>1032.073282170226</v>
+        <v>843.0305947153206</v>
       </c>
       <c r="U16" t="n">
-        <v>875.3416607560863</v>
+        <v>686.2989733011808</v>
       </c>
       <c r="V16" t="n">
-        <v>753.0675910047607</v>
+        <v>564.0249035498553</v>
       </c>
       <c r="W16" t="n">
-        <v>596.0608394223615</v>
+        <v>407.018151967456</v>
       </c>
       <c r="X16" t="n">
-        <v>500.4817069789055</v>
+        <v>311.4390195240001</v>
       </c>
       <c r="Y16" t="n">
-        <v>412.0995462899367</v>
+        <v>223.0568588350313</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>841.3074592079159</v>
+        <v>841.3074592079153</v>
       </c>
       <c r="C17" t="n">
-        <v>712.6807423466092</v>
+        <v>712.6807423466087</v>
       </c>
       <c r="D17" t="n">
-        <v>594.7508438189639</v>
+        <v>594.7508438189634</v>
       </c>
       <c r="E17" t="n">
-        <v>449.2983912998247</v>
+        <v>449.2983912998245</v>
       </c>
       <c r="F17" t="n">
         <v>278.648286589322</v>
       </c>
       <c r="G17" t="n">
-        <v>102.3105962085484</v>
+        <v>102.3105962085483</v>
       </c>
       <c r="H17" t="n">
-        <v>28.66614187411184</v>
+        <v>28.66614187411183</v>
       </c>
       <c r="I17" t="n">
-        <v>28.66614187411184</v>
+        <v>28.66614187411183</v>
       </c>
       <c r="J17" t="n">
-        <v>84.36311551925047</v>
+        <v>84.36311551925041</v>
       </c>
       <c r="K17" t="n">
-        <v>218.5769593083169</v>
+        <v>218.576959308317</v>
       </c>
       <c r="L17" t="n">
         <v>421.9828623864883</v>
       </c>
       <c r="M17" t="n">
-        <v>679.9805591267257</v>
+        <v>679.9805591267256</v>
       </c>
       <c r="N17" t="n">
-        <v>946.7667367073407</v>
+        <v>946.7667367073402</v>
       </c>
       <c r="O17" t="n">
-        <v>1185.35009778394</v>
+        <v>1185.350097783939</v>
       </c>
       <c r="P17" t="n">
-        <v>1354.47447578272</v>
+        <v>1354.474475782719</v>
       </c>
       <c r="Q17" t="n">
-        <v>1433.307093705592</v>
+        <v>1433.307093705591</v>
       </c>
       <c r="R17" t="n">
-        <v>1433.307093705592</v>
+        <v>1433.307093705591</v>
       </c>
       <c r="S17" t="n">
-        <v>1433.307093705592</v>
+        <v>1433.307093705591</v>
       </c>
       <c r="T17" t="n">
-        <v>1433.307093705592</v>
+        <v>1433.307093705591</v>
       </c>
       <c r="U17" t="n">
-        <v>1433.307093705592</v>
+        <v>1433.307093705591</v>
       </c>
       <c r="V17" t="n">
-        <v>1382.937844462623</v>
+        <v>1342.580006441126</v>
       </c>
       <c r="W17" t="n">
-        <v>1270.504989271614</v>
+        <v>1270.504989271613</v>
       </c>
       <c r="X17" t="n">
-        <v>1137.37503108964</v>
+        <v>1137.375031089639</v>
       </c>
       <c r="Y17" t="n">
-        <v>987.5714991929327</v>
+        <v>987.5714991929319</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>696.0985503322858</v>
+        <v>66.93909841133691</v>
       </c>
       <c r="C18" t="n">
-        <v>521.6455210511588</v>
+        <v>66.93909841133691</v>
       </c>
       <c r="D18" t="n">
-        <v>372.7111113899074</v>
+        <v>66.93909841133691</v>
       </c>
       <c r="E18" t="n">
-        <v>213.4736563844519</v>
+        <v>66.93909841133691</v>
       </c>
       <c r="F18" t="n">
         <v>66.93909841133691</v>
@@ -5589,55 +5589,55 @@
         <v>66.93909841133691</v>
       </c>
       <c r="I18" t="n">
-        <v>28.66614187411184</v>
+        <v>28.66614187411183</v>
       </c>
       <c r="J18" t="n">
-        <v>74.32087229040781</v>
+        <v>43.02103085769572</v>
       </c>
       <c r="K18" t="n">
-        <v>177.0104887013547</v>
+        <v>145.7106472686427</v>
       </c>
       <c r="L18" t="n">
-        <v>531.7539943934887</v>
+        <v>330.1120503740897</v>
       </c>
       <c r="M18" t="n">
-        <v>766.2986023375297</v>
+        <v>564.6566583181307</v>
       </c>
       <c r="N18" t="n">
-        <v>1021.459553060334</v>
+        <v>819.8176090409352</v>
       </c>
       <c r="O18" t="n">
-        <v>1232.662178035</v>
+        <v>1031.020234015601</v>
       </c>
       <c r="P18" t="n">
-        <v>1382.837838286219</v>
+        <v>1181.19589426682</v>
       </c>
       <c r="Q18" t="n">
-        <v>1433.307093705592</v>
+        <v>1433.307093705591</v>
       </c>
       <c r="R18" t="n">
-        <v>1425.957892590342</v>
+        <v>1425.957892590341</v>
       </c>
       <c r="S18" t="n">
-        <v>1425.957892590342</v>
+        <v>1425.957892590341</v>
       </c>
       <c r="T18" t="n">
-        <v>1425.957892590342</v>
+        <v>1368.27990360136</v>
       </c>
       <c r="U18" t="n">
-        <v>1425.957892590342</v>
+        <v>1140.155699361836</v>
       </c>
       <c r="V18" t="n">
-        <v>1425.957892590342</v>
+        <v>905.0035911300934</v>
       </c>
       <c r="W18" t="n">
-        <v>1279.92568632284</v>
+        <v>650.7662344018917</v>
       </c>
       <c r="X18" t="n">
-        <v>1072.074186117308</v>
+        <v>442.9147341963588</v>
       </c>
       <c r="Y18" t="n">
-        <v>864.3138873523537</v>
+        <v>235.1544354314049</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.22248498136861</v>
+        <v>518.6257178506153</v>
       </c>
       <c r="C19" t="n">
-        <v>52.22248498136861</v>
+        <v>349.6895349227084</v>
       </c>
       <c r="D19" t="n">
-        <v>52.22248498136861</v>
+        <v>349.6895349227084</v>
       </c>
       <c r="E19" t="n">
-        <v>52.22248498136861</v>
+        <v>349.6895349227084</v>
       </c>
       <c r="F19" t="n">
-        <v>52.22248498136861</v>
+        <v>349.6895349227084</v>
       </c>
       <c r="G19" t="n">
-        <v>28.66614187411184</v>
+        <v>181.2685267344411</v>
       </c>
       <c r="H19" t="n">
-        <v>28.66614187411184</v>
+        <v>28.66614187411183</v>
       </c>
       <c r="I19" t="n">
-        <v>28.66614187411184</v>
+        <v>28.66614187411183</v>
       </c>
       <c r="J19" t="n">
-        <v>28.66614187411184</v>
+        <v>28.66614187411183</v>
       </c>
       <c r="K19" t="n">
         <v>150.8752725800538</v>
@@ -5695,28 +5695,28 @@
         <v>1196.289267781553</v>
       </c>
       <c r="R19" t="n">
-        <v>1074.167205534262</v>
+        <v>1196.289267781553</v>
       </c>
       <c r="S19" t="n">
-        <v>869.9655496679547</v>
+        <v>1196.289267781553</v>
       </c>
       <c r="T19" t="n">
-        <v>645.1303830138122</v>
+        <v>1196.289267781553</v>
       </c>
       <c r="U19" t="n">
-        <v>596.3241432242161</v>
+        <v>907.147227912852</v>
       </c>
       <c r="V19" t="n">
-        <v>341.6396550183292</v>
+        <v>788.4996669520009</v>
       </c>
       <c r="W19" t="n">
-        <v>52.22248498136861</v>
+        <v>739.4182969941454</v>
       </c>
       <c r="X19" t="n">
-        <v>52.22248498136861</v>
+        <v>739.4182969941454</v>
       </c>
       <c r="Y19" t="n">
-        <v>52.22248498136861</v>
+        <v>518.6257178506153</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>841.3074592079166</v>
+        <v>841.3074592079154</v>
       </c>
       <c r="C20" t="n">
-        <v>712.6807423466099</v>
+        <v>712.6807423466088</v>
       </c>
       <c r="D20" t="n">
-        <v>594.7508438189644</v>
+        <v>594.7508438189634</v>
       </c>
       <c r="E20" t="n">
-        <v>449.2983912998252</v>
+        <v>449.2983912998243</v>
       </c>
       <c r="F20" t="n">
-        <v>278.6482865893227</v>
+        <v>278.648286589322</v>
       </c>
       <c r="G20" t="n">
-        <v>102.3105962085484</v>
+        <v>102.3105962085483</v>
       </c>
       <c r="H20" t="n">
-        <v>28.66614187411184</v>
+        <v>28.66614187411183</v>
       </c>
       <c r="I20" t="n">
-        <v>28.66614187411184</v>
+        <v>28.66614187411183</v>
       </c>
       <c r="J20" t="n">
-        <v>84.36311551925064</v>
+        <v>84.36311551925046</v>
       </c>
       <c r="K20" t="n">
         <v>218.5769593083169</v>
@@ -5759,10 +5759,10 @@
         <v>421.9828623864883</v>
       </c>
       <c r="M20" t="n">
-        <v>679.9805591267256</v>
+        <v>679.9805591267257</v>
       </c>
       <c r="N20" t="n">
-        <v>946.7667367073406</v>
+        <v>946.7667367073407</v>
       </c>
       <c r="O20" t="n">
         <v>1185.35009778394</v>
@@ -5774,28 +5774,28 @@
         <v>1433.307093705592</v>
       </c>
       <c r="R20" t="n">
-        <v>1433.307093705592</v>
+        <v>1433.307093705591</v>
       </c>
       <c r="S20" t="n">
-        <v>1433.307093705592</v>
+        <v>1433.307093705591</v>
       </c>
       <c r="T20" t="n">
-        <v>1433.307093705592</v>
+        <v>1433.307093705591</v>
       </c>
       <c r="U20" t="n">
-        <v>1419.984333834144</v>
+        <v>1419.984333834143</v>
       </c>
       <c r="V20" t="n">
-        <v>1382.937844462624</v>
+        <v>1329.257246569677</v>
       </c>
       <c r="W20" t="n">
-        <v>1270.504989271615</v>
+        <v>1270.504989271613</v>
       </c>
       <c r="X20" t="n">
-        <v>1137.37503108964</v>
+        <v>1137.375031089638</v>
       </c>
       <c r="Y20" t="n">
-        <v>987.5714991929334</v>
+        <v>987.5714991929319</v>
       </c>
     </row>
     <row r="21">
@@ -5805,31 +5805,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>332.4685876058522</v>
+        <v>657.8255937950606</v>
       </c>
       <c r="C21" t="n">
-        <v>158.0155583247252</v>
+        <v>483.3725645139336</v>
       </c>
       <c r="D21" t="n">
-        <v>28.66614187411184</v>
+        <v>334.4381548526824</v>
       </c>
       <c r="E21" t="n">
-        <v>28.66614187411184</v>
+        <v>175.2006998472268</v>
       </c>
       <c r="F21" t="n">
-        <v>28.66614187411184</v>
+        <v>28.66614187411183</v>
       </c>
       <c r="G21" t="n">
-        <v>28.66614187411184</v>
+        <v>28.66614187411183</v>
       </c>
       <c r="H21" t="n">
-        <v>28.66614187411184</v>
+        <v>28.66614187411183</v>
       </c>
       <c r="I21" t="n">
-        <v>28.66614187411184</v>
+        <v>28.66614187411183</v>
       </c>
       <c r="J21" t="n">
-        <v>43.02103085769573</v>
+        <v>43.02103085769572</v>
       </c>
       <c r="K21" t="n">
         <v>145.7106472686427</v>
@@ -5838,43 +5838,43 @@
         <v>330.1120503740897</v>
       </c>
       <c r="M21" t="n">
-        <v>684.8555560662237</v>
+        <v>564.6566583181307</v>
       </c>
       <c r="N21" t="n">
-        <v>1021.459553060335</v>
+        <v>819.8176090409352</v>
       </c>
       <c r="O21" t="n">
-        <v>1232.662178035</v>
+        <v>1031.020234015601</v>
       </c>
       <c r="P21" t="n">
-        <v>1382.837838286219</v>
+        <v>1181.19589426682</v>
       </c>
       <c r="Q21" t="n">
-        <v>1433.307093705592</v>
+        <v>1433.307093705591</v>
       </c>
       <c r="R21" t="n">
-        <v>1425.957892590342</v>
+        <v>1425.957892590341</v>
       </c>
       <c r="S21" t="n">
-        <v>1425.957892590342</v>
+        <v>1425.957892590341</v>
       </c>
       <c r="T21" t="n">
-        <v>1425.957892590342</v>
+        <v>1275.826990468703</v>
       </c>
       <c r="U21" t="n">
-        <v>1197.833688350818</v>
+        <v>1047.702786229179</v>
       </c>
       <c r="V21" t="n">
-        <v>962.6815801190758</v>
+        <v>1047.702786229179</v>
       </c>
       <c r="W21" t="n">
-        <v>708.4442233908742</v>
+        <v>1033.801229580082</v>
       </c>
       <c r="X21" t="n">
-        <v>708.4442233908742</v>
+        <v>1033.801229580082</v>
       </c>
       <c r="Y21" t="n">
-        <v>500.6839246259203</v>
+        <v>826.0409308151286</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>176.579235456505</v>
+        <v>178.7827812864475</v>
       </c>
       <c r="C22" t="n">
-        <v>176.579235456505</v>
+        <v>178.7827812864475</v>
       </c>
       <c r="D22" t="n">
-        <v>176.579235456505</v>
+        <v>28.66614187411183</v>
       </c>
       <c r="E22" t="n">
-        <v>28.66614187411184</v>
+        <v>28.66614187411183</v>
       </c>
       <c r="F22" t="n">
-        <v>28.66614187411184</v>
+        <v>28.66614187411183</v>
       </c>
       <c r="G22" t="n">
-        <v>28.66614187411184</v>
+        <v>28.66614187411183</v>
       </c>
       <c r="H22" t="n">
-        <v>28.66614187411184</v>
+        <v>28.66614187411183</v>
       </c>
       <c r="I22" t="n">
-        <v>28.66614187411184</v>
+        <v>28.66614187411183</v>
       </c>
       <c r="J22" t="n">
-        <v>28.66614187411184</v>
+        <v>28.66614187411183</v>
       </c>
       <c r="K22" t="n">
         <v>150.8752725800538</v>
@@ -5932,28 +5932,28 @@
         <v>1196.289267781553</v>
       </c>
       <c r="R22" t="n">
-        <v>1074.167205534262</v>
+        <v>1196.289267781553</v>
       </c>
       <c r="S22" t="n">
-        <v>1074.167205534262</v>
+        <v>996.5258459730337</v>
       </c>
       <c r="T22" t="n">
-        <v>1074.167205534262</v>
+        <v>771.6906793188911</v>
       </c>
       <c r="U22" t="n">
-        <v>882.7861375940173</v>
+        <v>482.5486394501899</v>
       </c>
       <c r="V22" t="n">
-        <v>868.4374494672354</v>
+        <v>227.864151244303</v>
       </c>
       <c r="W22" t="n">
-        <v>579.0202794302747</v>
+        <v>178.7827812864475</v>
       </c>
       <c r="X22" t="n">
-        <v>579.0202794302747</v>
+        <v>178.7827812864475</v>
       </c>
       <c r="Y22" t="n">
-        <v>358.2277002867447</v>
+        <v>178.7827812864475</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>842.4029816138958</v>
+        <v>842.4029816138948</v>
       </c>
       <c r="C23" t="n">
-        <v>713.7762647525891</v>
+        <v>713.7762647525882</v>
       </c>
       <c r="D23" t="n">
-        <v>595.8463662249436</v>
+        <v>595.8463662249428</v>
       </c>
       <c r="E23" t="n">
-        <v>450.3939137058044</v>
+        <v>450.3939137058037</v>
       </c>
       <c r="F23" t="n">
-        <v>279.7438089953021</v>
+        <v>279.7438089953014</v>
       </c>
       <c r="G23" t="n">
-        <v>103.4061186145269</v>
+        <v>103.4061186145267</v>
       </c>
       <c r="H23" t="n">
-        <v>29.76166428009035</v>
+        <v>29.76166428009032</v>
       </c>
       <c r="I23" t="n">
-        <v>29.76166428009035</v>
+        <v>29.76166428009032</v>
       </c>
       <c r="J23" t="n">
-        <v>85.45863792522898</v>
+        <v>85.45863792522896</v>
       </c>
       <c r="K23" t="n">
         <v>219.6724817142954</v>
@@ -5999,40 +5999,40 @@
         <v>681.0760815327042</v>
       </c>
       <c r="N23" t="n">
-        <v>947.8622591133192</v>
+        <v>976.0365130001431</v>
       </c>
       <c r="O23" t="n">
-        <v>1240.126218082865</v>
+        <v>1214.619874076742</v>
       </c>
       <c r="P23" t="n">
-        <v>1409.250596081645</v>
+        <v>1383.744252075522</v>
       </c>
       <c r="Q23" t="n">
-        <v>1488.083214004517</v>
+        <v>1462.576869998394</v>
       </c>
       <c r="R23" t="n">
-        <v>1488.083214004517</v>
+        <v>1488.083214004516</v>
       </c>
       <c r="S23" t="n">
-        <v>1488.083214004517</v>
+        <v>1488.083214004516</v>
       </c>
       <c r="T23" t="n">
-        <v>1488.083214004517</v>
+        <v>1488.083214004516</v>
       </c>
       <c r="U23" t="n">
-        <v>1474.760454133069</v>
+        <v>1474.760454133067</v>
       </c>
       <c r="V23" t="n">
-        <v>1384.033366868603</v>
+        <v>1384.033366868602</v>
       </c>
       <c r="W23" t="n">
-        <v>1271.600511677594</v>
+        <v>1271.600511677593</v>
       </c>
       <c r="X23" t="n">
-        <v>1138.470553495619</v>
+        <v>1138.470553495618</v>
       </c>
       <c r="Y23" t="n">
-        <v>988.6670215989125</v>
+        <v>988.6670215989113</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>650.0187212857611</v>
+        <v>658.9211162010391</v>
       </c>
       <c r="C24" t="n">
-        <v>475.5656920046341</v>
+        <v>484.4680869199121</v>
       </c>
       <c r="D24" t="n">
-        <v>326.6312823433828</v>
+        <v>335.5336772586609</v>
       </c>
       <c r="E24" t="n">
-        <v>167.3938273379273</v>
+        <v>176.2962222532053</v>
       </c>
       <c r="F24" t="n">
-        <v>29.76166428009035</v>
+        <v>29.76166428009032</v>
       </c>
       <c r="G24" t="n">
-        <v>29.76166428009035</v>
+        <v>29.76166428009032</v>
       </c>
       <c r="H24" t="n">
-        <v>29.76166428009035</v>
+        <v>29.76166428009032</v>
       </c>
       <c r="I24" t="n">
-        <v>29.76166428009035</v>
+        <v>29.76166428009032</v>
       </c>
       <c r="J24" t="n">
-        <v>168.946678250679</v>
+        <v>44.11655326367421</v>
       </c>
       <c r="K24" t="n">
-        <v>271.6362946616259</v>
+        <v>184.0037763720674</v>
       </c>
       <c r="L24" t="n">
-        <v>456.0376977670729</v>
+        <v>368.4051794775144</v>
       </c>
       <c r="M24" t="n">
-        <v>690.5823057111138</v>
+        <v>602.9497874215554</v>
       </c>
       <c r="N24" t="n">
-        <v>945.7432564339183</v>
+        <v>858.1107381443599</v>
       </c>
       <c r="O24" t="n">
-        <v>1156.945881408584</v>
+        <v>1069.313363119026</v>
       </c>
       <c r="P24" t="n">
-        <v>1437.613958585145</v>
+        <v>1437.613958585143</v>
       </c>
       <c r="Q24" t="n">
-        <v>1488.083214004517</v>
+        <v>1488.083214004516</v>
       </c>
       <c r="R24" t="n">
-        <v>1488.083214004517</v>
+        <v>1480.734012889266</v>
       </c>
       <c r="S24" t="n">
-        <v>1488.083214004517</v>
+        <v>1480.734012889266</v>
       </c>
       <c r="T24" t="n">
-        <v>1488.083214004517</v>
+        <v>1480.734012889266</v>
       </c>
       <c r="U24" t="n">
-        <v>1488.083214004517</v>
+        <v>1480.734012889266</v>
       </c>
       <c r="V24" t="n">
-        <v>1488.083214004517</v>
+        <v>1480.734012889266</v>
       </c>
       <c r="W24" t="n">
-        <v>1233.845857276316</v>
+        <v>1242.748252191594</v>
       </c>
       <c r="X24" t="n">
-        <v>1025.994357070783</v>
+        <v>1034.896751986061</v>
       </c>
       <c r="Y24" t="n">
-        <v>818.2340583058292</v>
+        <v>827.1364532211071</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>496.7275802027261</v>
+        <v>643.6175277006364</v>
       </c>
       <c r="C25" t="n">
-        <v>327.7913972748192</v>
+        <v>474.6813447727295</v>
       </c>
       <c r="D25" t="n">
-        <v>177.6747578624835</v>
+        <v>324.5647053603938</v>
       </c>
       <c r="E25" t="n">
-        <v>29.76166428009035</v>
+        <v>176.6516117780007</v>
       </c>
       <c r="F25" t="n">
-        <v>29.76166428009035</v>
+        <v>29.76166428009032</v>
       </c>
       <c r="G25" t="n">
-        <v>29.76166428009035</v>
+        <v>29.76166428009032</v>
       </c>
       <c r="H25" t="n">
-        <v>29.76166428009035</v>
+        <v>29.76166428009032</v>
       </c>
       <c r="I25" t="n">
-        <v>29.76166428009035</v>
+        <v>29.76166428009032</v>
       </c>
       <c r="J25" t="n">
-        <v>29.76166428009035</v>
+        <v>29.76166428009032</v>
       </c>
       <c r="K25" t="n">
         <v>151.9707949860323</v>
@@ -6175,22 +6175,22 @@
         <v>1197.384790187532</v>
       </c>
       <c r="T25" t="n">
-        <v>1070.092257299595</v>
+        <v>1197.384790187532</v>
       </c>
       <c r="U25" t="n">
-        <v>1021.286017509999</v>
+        <v>1148.578550397936</v>
       </c>
       <c r="V25" t="n">
-        <v>766.6015293041119</v>
+        <v>1134.229862271154</v>
       </c>
       <c r="W25" t="n">
-        <v>717.5201593462563</v>
+        <v>871.6070785986537</v>
       </c>
       <c r="X25" t="n">
-        <v>717.5201593462563</v>
+        <v>643.6175277006364</v>
       </c>
       <c r="Y25" t="n">
-        <v>496.7275802027261</v>
+        <v>643.6175277006364</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1672.22947058976</v>
+        <v>1672.229470589758</v>
       </c>
       <c r="C26" t="n">
-        <v>1411.192335273893</v>
+        <v>1411.19233527389</v>
       </c>
       <c r="D26" t="n">
-        <v>1160.852018291686</v>
+        <v>1160.852018291683</v>
       </c>
       <c r="E26" t="n">
-        <v>882.9891473179853</v>
+        <v>882.9891473179823</v>
       </c>
       <c r="F26" t="n">
-        <v>579.9286241529214</v>
+        <v>579.928624152919</v>
       </c>
       <c r="G26" t="n">
         <v>271.1805153175837</v>
       </c>
       <c r="H26" t="n">
-        <v>65.12564252858589</v>
+        <v>65.12564252858587</v>
       </c>
       <c r="I26" t="n">
-        <v>65.12564252858589</v>
+        <v>65.12564252858587</v>
       </c>
       <c r="J26" t="n">
-        <v>288.2282651940776</v>
+        <v>120.8226161737245</v>
       </c>
       <c r="K26" t="n">
-        <v>743.3460674285971</v>
+        <v>373.083356851186</v>
       </c>
       <c r="L26" t="n">
-        <v>1360.236572911714</v>
+        <v>989.9738623343032</v>
       </c>
       <c r="M26" t="n">
-        <v>2063.252667809856</v>
+        <v>1692.989957232445</v>
       </c>
       <c r="N26" t="n">
-        <v>2763.012300558335</v>
+        <v>2392.749589980924</v>
       </c>
       <c r="O26" t="n">
-        <v>3008.325130507642</v>
+        <v>3008.325130507641</v>
       </c>
       <c r="P26" t="n">
-        <v>3177.449508506422</v>
+        <v>3177.449508506421</v>
       </c>
       <c r="Q26" t="n">
-        <v>3256.282126429294</v>
+        <v>3256.282126429293</v>
       </c>
       <c r="R26" t="n">
-        <v>3256.282126429294</v>
+        <v>3256.282126429293</v>
       </c>
       <c r="S26" t="n">
-        <v>3217.433133633577</v>
+        <v>3217.433133633576</v>
       </c>
       <c r="T26" t="n">
-        <v>3112.372213707749</v>
+        <v>3112.372213707748</v>
       </c>
       <c r="U26" t="n">
-        <v>2966.639035381739</v>
+        <v>2966.639035381738</v>
       </c>
       <c r="V26" t="n">
-        <v>2743.501529662713</v>
+        <v>2743.501529662711</v>
       </c>
       <c r="W26" t="n">
-        <v>2498.658256017142</v>
+        <v>2498.65825601714</v>
       </c>
       <c r="X26" t="n">
-        <v>2233.117879380606</v>
+        <v>2233.117879380604</v>
       </c>
       <c r="Y26" t="n">
-        <v>1950.903929029338</v>
+        <v>1950.903929029336</v>
       </c>
     </row>
     <row r="27">
@@ -6300,22 +6300,22 @@
         <v>103.398599065811</v>
       </c>
       <c r="I27" t="n">
-        <v>65.12564252858589</v>
+        <v>65.12564252858587</v>
       </c>
       <c r="J27" t="n">
-        <v>79.48053151216978</v>
+        <v>204.3106564991745</v>
       </c>
       <c r="K27" t="n">
-        <v>443.9907325655695</v>
+        <v>568.8208575525744</v>
       </c>
       <c r="L27" t="n">
-        <v>803.9567757058364</v>
+        <v>1120.354202508446</v>
       </c>
       <c r="M27" t="n">
-        <v>1038.501383649877</v>
+        <v>1354.898810452487</v>
       </c>
       <c r="N27" t="n">
-        <v>1293.662334372682</v>
+        <v>1610.059761175292</v>
       </c>
       <c r="O27" t="n">
         <v>1894.78865543131</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>363.4502823562914</v>
+        <v>363.450282356292</v>
       </c>
       <c r="C28" t="n">
-        <v>302.4394810529283</v>
+        <v>302.4394810529287</v>
       </c>
       <c r="D28" t="n">
-        <v>260.2482232651363</v>
+        <v>260.2482232651367</v>
       </c>
       <c r="E28" t="n">
-        <v>220.2605113072869</v>
+        <v>220.2605113072872</v>
       </c>
       <c r="F28" t="n">
-        <v>181.2959454339203</v>
+        <v>181.2959454339206</v>
       </c>
       <c r="G28" t="n">
-        <v>120.8003188701968</v>
+        <v>120.8003188701969</v>
       </c>
       <c r="H28" t="n">
-        <v>76.12331563441127</v>
+        <v>76.12331563441134</v>
       </c>
       <c r="I28" t="n">
-        <v>65.12564252858589</v>
+        <v>65.12564252858587</v>
       </c>
       <c r="J28" t="n">
-        <v>166.2616291197195</v>
+        <v>65.12564252858587</v>
       </c>
       <c r="K28" t="n">
-        <v>361.5410302849747</v>
+        <v>293.1124397647431</v>
       </c>
       <c r="L28" t="n">
-        <v>573.4530770604702</v>
+        <v>505.0244865402385</v>
       </c>
       <c r="M28" t="n">
-        <v>807.2737412183199</v>
+        <v>738.8451506980882</v>
       </c>
       <c r="N28" t="n">
-        <v>1040.96928901923</v>
+        <v>972.5406984989986</v>
       </c>
       <c r="O28" t="n">
-        <v>1240.808656619366</v>
+        <v>1172.380066099135</v>
       </c>
       <c r="P28" t="n">
-        <v>1388.285076689958</v>
+        <v>1388.28507668996</v>
       </c>
       <c r="Q28" t="n">
-        <v>1406.955025486474</v>
+        <v>1406.955025486476</v>
       </c>
       <c r="R28" t="n">
-        <v>1392.758344863727</v>
+        <v>1392.758344863728</v>
       </c>
       <c r="S28" t="n">
-        <v>1296.482070621963</v>
+        <v>1296.482070621965</v>
       </c>
       <c r="T28" t="n">
-        <v>1179.572285592365</v>
+        <v>1179.572285592366</v>
       </c>
       <c r="U28" t="n">
-        <v>998.3556273482072</v>
+        <v>998.3556273482083</v>
       </c>
       <c r="V28" t="n">
-        <v>851.5965207668642</v>
+        <v>851.5965207668651</v>
       </c>
       <c r="W28" t="n">
-        <v>670.1047323544473</v>
+        <v>670.1047323544481</v>
       </c>
       <c r="X28" t="n">
-        <v>550.0405630809737</v>
+        <v>550.0405630809744</v>
       </c>
       <c r="Y28" t="n">
-        <v>437.1733655619874</v>
+        <v>437.173365561988</v>
       </c>
     </row>
     <row r="29">
@@ -6443,52 +6443,52 @@
         <v>1411.192335273891</v>
       </c>
       <c r="D29" t="n">
-        <v>1160.852018291684</v>
+        <v>1160.852018291685</v>
       </c>
       <c r="E29" t="n">
-        <v>882.9891473179837</v>
+        <v>882.9891473179841</v>
       </c>
       <c r="F29" t="n">
-        <v>579.9286241529198</v>
+        <v>579.9286241529203</v>
       </c>
       <c r="G29" t="n">
-        <v>271.1805153175838</v>
+        <v>271.1805153175837</v>
       </c>
       <c r="H29" t="n">
-        <v>65.12564252858589</v>
+        <v>65.12564252858587</v>
       </c>
       <c r="I29" t="n">
-        <v>65.12564252858589</v>
+        <v>65.12564252858587</v>
       </c>
       <c r="J29" t="n">
         <v>120.8226161737245</v>
       </c>
       <c r="K29" t="n">
-        <v>373.0833568511869</v>
+        <v>467.9872381663641</v>
       </c>
       <c r="L29" t="n">
-        <v>989.9738623343042</v>
+        <v>671.3931412445354</v>
       </c>
       <c r="M29" t="n">
-        <v>1692.989957232446</v>
+        <v>1374.409236142677</v>
       </c>
       <c r="N29" t="n">
-        <v>2392.749589980925</v>
+        <v>2074.168868891156</v>
       </c>
       <c r="O29" t="n">
-        <v>3008.325130507642</v>
+        <v>2689.744409417873</v>
       </c>
       <c r="P29" t="n">
-        <v>3177.449508506422</v>
+        <v>3177.449508506421</v>
       </c>
       <c r="Q29" t="n">
-        <v>3256.282126429294</v>
+        <v>3256.282126429293</v>
       </c>
       <c r="R29" t="n">
-        <v>3256.282126429294</v>
+        <v>3256.282126429293</v>
       </c>
       <c r="S29" t="n">
-        <v>3217.433133633577</v>
+        <v>3217.433133633576</v>
       </c>
       <c r="T29" t="n">
         <v>3112.372213707749</v>
@@ -6500,13 +6500,13 @@
         <v>2743.501529662712</v>
       </c>
       <c r="W29" t="n">
-        <v>2498.658256017141</v>
+        <v>2498.658256017142</v>
       </c>
       <c r="X29" t="n">
-        <v>2233.117879380605</v>
+        <v>2233.117879380606</v>
       </c>
       <c r="Y29" t="n">
-        <v>1950.903929029337</v>
+        <v>1950.903929029338</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>103.398599065811</v>
       </c>
       <c r="I30" t="n">
-        <v>65.12564252858589</v>
+        <v>65.12564252858587</v>
       </c>
       <c r="J30" t="n">
         <v>204.3106564991745</v>
@@ -6598,13 +6598,13 @@
         <v>363.450282356292</v>
       </c>
       <c r="C31" t="n">
-        <v>302.4394810529288</v>
+        <v>302.4394810529287</v>
       </c>
       <c r="D31" t="n">
         <v>260.2482232651367</v>
       </c>
       <c r="E31" t="n">
-        <v>220.2605113072873</v>
+        <v>220.2605113072872</v>
       </c>
       <c r="F31" t="n">
         <v>181.2959454339206</v>
@@ -6613,19 +6613,19 @@
         <v>120.8003188701969</v>
       </c>
       <c r="H31" t="n">
-        <v>76.12331563441136</v>
+        <v>76.12331563441134</v>
       </c>
       <c r="I31" t="n">
-        <v>65.12564252858589</v>
+        <v>65.12564252858587</v>
       </c>
       <c r="J31" t="n">
-        <v>65.12564252858589</v>
+        <v>65.12564252858587</v>
       </c>
       <c r="K31" t="n">
         <v>293.1124397647431</v>
       </c>
       <c r="L31" t="n">
-        <v>573.4530770604717</v>
+        <v>505.0244865402385</v>
       </c>
       <c r="M31" t="n">
         <v>807.2737412183214</v>
@@ -6658,10 +6658,10 @@
         <v>851.5965207668651</v>
       </c>
       <c r="W31" t="n">
-        <v>670.1047323544482</v>
+        <v>670.1047323544481</v>
       </c>
       <c r="X31" t="n">
-        <v>550.0405630809745</v>
+        <v>550.0405630809744</v>
       </c>
       <c r="Y31" t="n">
         <v>437.173365561988</v>
@@ -6674,64 +6674,64 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1672.229470589759</v>
+        <v>1672.229470589758</v>
       </c>
       <c r="C32" t="n">
-        <v>1411.192335273891</v>
+        <v>1411.19233527389</v>
       </c>
       <c r="D32" t="n">
         <v>1160.852018291684</v>
       </c>
       <c r="E32" t="n">
-        <v>882.9891473179838</v>
+        <v>882.989147317983</v>
       </c>
       <c r="F32" t="n">
-        <v>579.92862415292</v>
+        <v>579.9286241529192</v>
       </c>
       <c r="G32" t="n">
         <v>271.1805153175837</v>
       </c>
       <c r="H32" t="n">
-        <v>65.12564252858589</v>
+        <v>65.12564252858587</v>
       </c>
       <c r="I32" t="n">
-        <v>65.12564252858589</v>
+        <v>65.12564252858587</v>
       </c>
       <c r="J32" t="n">
-        <v>288.2282651940776</v>
+        <v>288.2282651940775</v>
       </c>
       <c r="K32" t="n">
-        <v>431.4948152115369</v>
+        <v>422.442108983144</v>
       </c>
       <c r="L32" t="n">
-        <v>1048.385320694654</v>
+        <v>1039.332614466261</v>
       </c>
       <c r="M32" t="n">
-        <v>1751.401415592796</v>
+        <v>1742.348709364403</v>
       </c>
       <c r="N32" t="n">
-        <v>2451.161048341275</v>
+        <v>2442.108342112882</v>
       </c>
       <c r="O32" t="n">
-        <v>2689.744409417874</v>
+        <v>2680.691703189481</v>
       </c>
       <c r="P32" t="n">
-        <v>3177.449508506422</v>
+        <v>3168.396802278029</v>
       </c>
       <c r="Q32" t="n">
-        <v>3256.282126429294</v>
+        <v>3247.229420200901</v>
       </c>
       <c r="R32" t="n">
-        <v>3256.282126429294</v>
+        <v>3256.282126429293</v>
       </c>
       <c r="S32" t="n">
-        <v>3217.433133633577</v>
+        <v>3217.433133633575</v>
       </c>
       <c r="T32" t="n">
-        <v>3112.372213707749</v>
+        <v>3112.372213707748</v>
       </c>
       <c r="U32" t="n">
-        <v>2966.639035381739</v>
+        <v>2966.639035381738</v>
       </c>
       <c r="V32" t="n">
         <v>2743.501529662712</v>
@@ -6740,10 +6740,10 @@
         <v>2498.658256017141</v>
       </c>
       <c r="X32" t="n">
-        <v>2233.117879380605</v>
+        <v>2233.117879380604</v>
       </c>
       <c r="Y32" t="n">
-        <v>1950.903929029337</v>
+        <v>1950.903929029336</v>
       </c>
     </row>
     <row r="33">
@@ -6774,22 +6774,22 @@
         <v>103.398599065811</v>
       </c>
       <c r="I33" t="n">
-        <v>65.12564252858589</v>
+        <v>65.12564252858587</v>
       </c>
       <c r="J33" t="n">
-        <v>79.48053151216978</v>
+        <v>204.3106564991745</v>
       </c>
       <c r="K33" t="n">
-        <v>252.4234307499647</v>
+        <v>568.8208575525744</v>
       </c>
       <c r="L33" t="n">
-        <v>803.9567757058364</v>
+        <v>1120.354202508446</v>
       </c>
       <c r="M33" t="n">
-        <v>1038.501383649877</v>
+        <v>1354.898810452487</v>
       </c>
       <c r="N33" t="n">
-        <v>1293.662334372682</v>
+        <v>1610.059761175292</v>
       </c>
       <c r="O33" t="n">
         <v>1894.78865543131</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>363.4502823562919</v>
+        <v>363.450282356292</v>
       </c>
       <c r="C34" t="n">
         <v>302.4394810529287</v>
       </c>
       <c r="D34" t="n">
-        <v>260.2482232651366</v>
+        <v>260.2482232651367</v>
       </c>
       <c r="E34" t="n">
         <v>220.2605113072872</v>
       </c>
       <c r="F34" t="n">
-        <v>181.2959454339205</v>
+        <v>181.2959454339206</v>
       </c>
       <c r="G34" t="n">
         <v>120.8003188701969</v>
@@ -6853,28 +6853,28 @@
         <v>76.12331563441134</v>
       </c>
       <c r="I34" t="n">
-        <v>65.12564252858589</v>
+        <v>65.12564252858587</v>
       </c>
       <c r="J34" t="n">
-        <v>133.5542330488191</v>
+        <v>65.12564252858587</v>
       </c>
       <c r="K34" t="n">
-        <v>255.7633637547611</v>
+        <v>187.3347732345279</v>
       </c>
       <c r="L34" t="n">
-        <v>573.4530770604717</v>
+        <v>399.2468200100233</v>
       </c>
       <c r="M34" t="n">
-        <v>807.2737412183214</v>
+        <v>633.067484167873</v>
       </c>
       <c r="N34" t="n">
-        <v>1040.969289019232</v>
+        <v>866.7630319687834</v>
       </c>
       <c r="O34" t="n">
-        <v>1240.808656619368</v>
+        <v>1135.030990089153</v>
       </c>
       <c r="P34" t="n">
-        <v>1388.28507668996</v>
+        <v>1282.507410159745</v>
       </c>
       <c r="Q34" t="n">
         <v>1406.955025486476</v>
@@ -6889,10 +6889,10 @@
         <v>1179.572285592366</v>
       </c>
       <c r="U34" t="n">
-        <v>998.3556273482081</v>
+        <v>998.3556273482083</v>
       </c>
       <c r="V34" t="n">
-        <v>851.596520766865</v>
+        <v>851.5965207668651</v>
       </c>
       <c r="W34" t="n">
         <v>670.1047323544481</v>
@@ -6901,7 +6901,7 @@
         <v>550.0405630809744</v>
       </c>
       <c r="Y34" t="n">
-        <v>437.1733655619879</v>
+        <v>437.173365561988</v>
       </c>
     </row>
     <row r="35">
@@ -6914,46 +6914,46 @@
         <v>1013.19780916068</v>
       </c>
       <c r="C35" t="n">
-        <v>857.2215937706395</v>
+        <v>857.2215937706394</v>
       </c>
       <c r="D35" t="n">
-        <v>711.9421967142606</v>
+        <v>711.9421967142604</v>
       </c>
       <c r="E35" t="n">
-        <v>539.140245666388</v>
+        <v>539.1402456663876</v>
       </c>
       <c r="F35" t="n">
-        <v>341.140642427152</v>
+        <v>341.1406424271515</v>
       </c>
       <c r="G35" t="n">
-        <v>137.453453517644</v>
+        <v>137.4534535176441</v>
       </c>
       <c r="H35" t="n">
-        <v>36.45950065447403</v>
+        <v>36.45950065447405</v>
       </c>
       <c r="I35" t="n">
-        <v>36.45950065447403</v>
+        <v>36.45950065447405</v>
       </c>
       <c r="J35" t="n">
-        <v>92.15647429961267</v>
+        <v>259.5621233199657</v>
       </c>
       <c r="K35" t="n">
-        <v>226.3703180886791</v>
+        <v>393.7759671090321</v>
       </c>
       <c r="L35" t="n">
-        <v>618.4621775457192</v>
+        <v>597.1818701872035</v>
       </c>
       <c r="M35" t="n">
-        <v>1069.648498144835</v>
+        <v>855.1795669274409</v>
       </c>
       <c r="N35" t="n">
-        <v>1336.43467572545</v>
+        <v>1121.965744508056</v>
       </c>
       <c r="O35" t="n">
-        <v>1575.018036802049</v>
+        <v>1360.549105584655</v>
       </c>
       <c r="P35" t="n">
-        <v>1744.14241480083</v>
+        <v>1533.950574047525</v>
       </c>
       <c r="Q35" t="n">
         <v>1822.975032723702</v>
@@ -6980,7 +6980,7 @@
         <v>1363.96437809987</v>
       </c>
       <c r="Y35" t="n">
-        <v>1186.811347674429</v>
+        <v>1186.81134767443</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>734.6205290840505</v>
+        <v>802.6670659690723</v>
       </c>
       <c r="C36" t="n">
-        <v>560.1674998029235</v>
+        <v>628.2140366879453</v>
       </c>
       <c r="D36" t="n">
-        <v>411.2330901416723</v>
+        <v>479.279627026694</v>
       </c>
       <c r="E36" t="n">
-        <v>251.9956351362168</v>
+        <v>320.0421720212385</v>
       </c>
       <c r="F36" t="n">
-        <v>251.9956351362168</v>
+        <v>173.5076140481234</v>
       </c>
       <c r="G36" t="n">
-        <v>114.7759028849573</v>
+        <v>173.5076140481234</v>
       </c>
       <c r="H36" t="n">
-        <v>36.45950065447403</v>
+        <v>74.73245719169913</v>
       </c>
       <c r="I36" t="n">
-        <v>36.45950065447403</v>
+        <v>36.45950065447405</v>
       </c>
       <c r="J36" t="n">
-        <v>50.81438963805792</v>
+        <v>175.6445146250627</v>
       </c>
       <c r="K36" t="n">
-        <v>153.5040060490049</v>
+        <v>278.3341310360096</v>
       </c>
       <c r="L36" t="n">
-        <v>604.6903266481211</v>
+        <v>462.7355341414567</v>
       </c>
       <c r="M36" t="n">
-        <v>839.2349345921621</v>
+        <v>913.9218547405731</v>
       </c>
       <c r="N36" t="n">
-        <v>1094.395885314967</v>
+        <v>1171.143796453994</v>
       </c>
       <c r="O36" t="n">
-        <v>1545.582205914083</v>
+        <v>1622.330117053111</v>
       </c>
       <c r="P36" t="n">
-        <v>1695.757866165302</v>
+        <v>1772.50577730433</v>
       </c>
       <c r="Q36" t="n">
         <v>1822.975032723702</v>
@@ -7041,25 +7041,25 @@
         <v>1822.975032723702</v>
       </c>
       <c r="S36" t="n">
-        <v>1822.975032723702</v>
+        <v>1677.625580974982</v>
       </c>
       <c r="T36" t="n">
-        <v>1822.975032723702</v>
+        <v>1481.529752209489</v>
       </c>
       <c r="U36" t="n">
-        <v>1807.83713003455</v>
+        <v>1466.391849520336</v>
       </c>
       <c r="V36" t="n">
-        <v>1572.685021802807</v>
+        <v>1231.239741288594</v>
       </c>
       <c r="W36" t="n">
-        <v>1318.447665074605</v>
+        <v>1178.733903194673</v>
       </c>
       <c r="X36" t="n">
-        <v>1110.596164869072</v>
+        <v>970.8824029891402</v>
       </c>
       <c r="Y36" t="n">
-        <v>902.8358661041186</v>
+        <v>970.8824029891402</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>205.3956835823809</v>
+        <v>336.1805364057914</v>
       </c>
       <c r="C37" t="n">
-        <v>36.45950065447403</v>
+        <v>167.2443534778845</v>
       </c>
       <c r="D37" t="n">
-        <v>36.45950065447403</v>
+        <v>167.2443534778845</v>
       </c>
       <c r="E37" t="n">
-        <v>36.45950065447403</v>
+        <v>167.2443534778845</v>
       </c>
       <c r="F37" t="n">
-        <v>36.45950065447403</v>
+        <v>167.2443534778845</v>
       </c>
       <c r="G37" t="n">
-        <v>36.45950065447403</v>
+        <v>36.45950065447405</v>
       </c>
       <c r="H37" t="n">
-        <v>36.45950065447403</v>
+        <v>36.45950065447405</v>
       </c>
       <c r="I37" t="n">
-        <v>36.45950065447403</v>
+        <v>36.45950065447405</v>
       </c>
       <c r="J37" t="n">
-        <v>36.45950065447403</v>
+        <v>36.45950065447405</v>
       </c>
       <c r="K37" t="n">
         <v>158.668631360416</v>
@@ -7102,43 +7102,43 @@
         <v>370.5806781359115</v>
       </c>
       <c r="M37" t="n">
-        <v>604.4013422937611</v>
+        <v>604.4013422937612</v>
       </c>
       <c r="N37" t="n">
-        <v>838.0968900946715</v>
+        <v>838.0968900946716</v>
       </c>
       <c r="O37" t="n">
-        <v>1037.936257694807</v>
+        <v>1037.936257694808</v>
       </c>
       <c r="P37" t="n">
         <v>1185.4126777654</v>
       </c>
       <c r="Q37" t="n">
-        <v>1204.082626561915</v>
+        <v>1204.082626561916</v>
       </c>
       <c r="R37" t="n">
-        <v>1204.082626561915</v>
+        <v>1204.082626561916</v>
       </c>
       <c r="S37" t="n">
-        <v>1073.297773738505</v>
+        <v>1204.082626561916</v>
       </c>
       <c r="T37" t="n">
-        <v>1061.448908634734</v>
+        <v>1192.233761458144</v>
       </c>
       <c r="U37" t="n">
-        <v>772.3068687660327</v>
+        <v>903.0917215894433</v>
       </c>
       <c r="V37" t="n">
-        <v>517.6223805601459</v>
+        <v>648.4072333835564</v>
       </c>
       <c r="W37" t="n">
-        <v>228.2052105231853</v>
+        <v>571.9763648969673</v>
       </c>
       <c r="X37" t="n">
-        <v>213.2019611755395</v>
+        <v>556.9731155493215</v>
       </c>
       <c r="Y37" t="n">
-        <v>205.3956835823809</v>
+        <v>336.1805364057914</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1013.19780916068</v>
+        <v>1013.197809160681</v>
       </c>
       <c r="C38" t="n">
-        <v>857.2215937706403</v>
+        <v>857.2215937706405</v>
       </c>
       <c r="D38" t="n">
-        <v>711.9421967142614</v>
+        <v>711.9421967142616</v>
       </c>
       <c r="E38" t="n">
-        <v>539.1402456663888</v>
+        <v>539.1402456663889</v>
       </c>
       <c r="F38" t="n">
         <v>341.1406424271528</v>
       </c>
       <c r="G38" t="n">
-        <v>137.453453517644</v>
+        <v>137.4534535176441</v>
       </c>
       <c r="H38" t="n">
-        <v>36.45950065447403</v>
+        <v>36.45950065447405</v>
       </c>
       <c r="I38" t="n">
-        <v>36.45950065447403</v>
+        <v>36.45950065447405</v>
       </c>
       <c r="J38" t="n">
         <v>259.5621233199657</v>
@@ -7178,19 +7178,19 @@
         <v>393.7759671090321</v>
       </c>
       <c r="L38" t="n">
-        <v>597.1818701872035</v>
+        <v>811.6508014045987</v>
       </c>
       <c r="M38" t="n">
-        <v>855.1795669274409</v>
+        <v>1069.648498144836</v>
       </c>
       <c r="N38" t="n">
-        <v>1121.965744508056</v>
+        <v>1336.434675725451</v>
       </c>
       <c r="O38" t="n">
-        <v>1360.549105584655</v>
+        <v>1575.01803680205</v>
       </c>
       <c r="P38" t="n">
-        <v>1533.950574047524</v>
+        <v>1744.14241480083</v>
       </c>
       <c r="Q38" t="n">
         <v>1822.975032723702</v>
@@ -7202,13 +7202,13 @@
         <v>1822.975032723702</v>
       </c>
       <c r="T38" t="n">
-        <v>1822.975032723702</v>
+        <v>1822.975032723703</v>
       </c>
       <c r="U38" t="n">
-        <v>1782.30277432352</v>
+        <v>1782.302774323521</v>
       </c>
       <c r="V38" t="n">
-        <v>1664.226188530321</v>
+        <v>1664.226188530322</v>
       </c>
       <c r="W38" t="n">
         <v>1524.443834810579</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>359.8469395968523</v>
+        <v>557.3573511395329</v>
       </c>
       <c r="C39" t="n">
-        <v>185.3939103157253</v>
+        <v>382.9043218584059</v>
       </c>
       <c r="D39" t="n">
-        <v>36.45950065447403</v>
+        <v>233.9699121971546</v>
       </c>
       <c r="E39" t="n">
-        <v>36.45950065447403</v>
+        <v>74.73245719169913</v>
       </c>
       <c r="F39" t="n">
-        <v>36.45950065447403</v>
+        <v>74.73245719169913</v>
       </c>
       <c r="G39" t="n">
-        <v>36.45950065447403</v>
+        <v>74.73245719169913</v>
       </c>
       <c r="H39" t="n">
-        <v>36.45950065447403</v>
+        <v>74.73245719169913</v>
       </c>
       <c r="I39" t="n">
-        <v>36.45950065447403</v>
+        <v>36.45950065447405</v>
       </c>
       <c r="J39" t="n">
         <v>175.6445146250627</v>
       </c>
       <c r="K39" t="n">
-        <v>278.3341310360096</v>
+        <v>540.1547156784625</v>
       </c>
       <c r="L39" t="n">
-        <v>713.4454185531083</v>
+        <v>724.5561187839095</v>
       </c>
       <c r="M39" t="n">
-        <v>947.9900264971493</v>
+        <v>959.1007267279504</v>
       </c>
       <c r="N39" t="n">
-        <v>1203.150977219954</v>
+        <v>1214.261677450755</v>
       </c>
       <c r="O39" t="n">
-        <v>1414.353602194619</v>
+        <v>1425.464302425421</v>
       </c>
       <c r="P39" t="n">
-        <v>1564.529262445839</v>
+        <v>1575.63996267664</v>
       </c>
       <c r="Q39" t="n">
         <v>1822.975032723702</v>
       </c>
       <c r="R39" t="n">
-        <v>1822.975032723702</v>
+        <v>1815.625831608452</v>
       </c>
       <c r="S39" t="n">
-        <v>1822.975032723702</v>
+        <v>1670.276379859732</v>
       </c>
       <c r="T39" t="n">
-        <v>1626.879203958208</v>
+        <v>1670.276379859732</v>
       </c>
       <c r="U39" t="n">
-        <v>1433.063540547351</v>
+        <v>1630.573952090032</v>
       </c>
       <c r="V39" t="n">
-        <v>1197.911432315609</v>
+        <v>1395.421843858289</v>
       </c>
       <c r="W39" t="n">
-        <v>943.6740755874071</v>
+        <v>1141.184487130088</v>
       </c>
       <c r="X39" t="n">
-        <v>735.8225753818742</v>
+        <v>933.3329869245547</v>
       </c>
       <c r="Y39" t="n">
-        <v>528.0622766169204</v>
+        <v>725.5726881596008</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>502.4022704926271</v>
+        <v>476.4059484334398</v>
       </c>
       <c r="C40" t="n">
-        <v>333.4660875647201</v>
+        <v>476.4059484334398</v>
       </c>
       <c r="D40" t="n">
-        <v>183.3494481523844</v>
+        <v>476.4059484334398</v>
       </c>
       <c r="E40" t="n">
-        <v>183.3494481523844</v>
+        <v>476.4059484334398</v>
       </c>
       <c r="F40" t="n">
-        <v>36.45950065447403</v>
+        <v>476.4059484334398</v>
       </c>
       <c r="G40" t="n">
-        <v>36.45950065447403</v>
+        <v>307.9849402451724</v>
       </c>
       <c r="H40" t="n">
-        <v>36.45950065447403</v>
+        <v>155.3825553848432</v>
       </c>
       <c r="I40" t="n">
-        <v>36.45950065447403</v>
+        <v>36.45950065447405</v>
       </c>
       <c r="J40" t="n">
-        <v>36.45950065447403</v>
+        <v>36.45950065447405</v>
       </c>
       <c r="K40" t="n">
         <v>158.668631360416</v>
@@ -7339,43 +7339,43 @@
         <v>370.5806781359115</v>
       </c>
       <c r="M40" t="n">
-        <v>604.4013422937611</v>
+        <v>604.4013422937612</v>
       </c>
       <c r="N40" t="n">
-        <v>838.0968900946715</v>
+        <v>838.0968900946716</v>
       </c>
       <c r="O40" t="n">
-        <v>1037.936257694807</v>
+        <v>1037.936257694808</v>
       </c>
       <c r="P40" t="n">
         <v>1185.4126777654</v>
       </c>
       <c r="Q40" t="n">
-        <v>1204.082626561915</v>
+        <v>1204.082626561916</v>
       </c>
       <c r="R40" t="n">
-        <v>1204.082626561915</v>
+        <v>1204.082626561916</v>
       </c>
       <c r="S40" t="n">
-        <v>1204.082626561915</v>
+        <v>1204.082626561916</v>
       </c>
       <c r="T40" t="n">
-        <v>979.2474599077727</v>
+        <v>1192.233761458144</v>
       </c>
       <c r="U40" t="n">
-        <v>903.0917215894432</v>
+        <v>1116.078023139815</v>
       </c>
       <c r="V40" t="n">
-        <v>814.6289674703919</v>
+        <v>1074.379836484299</v>
       </c>
       <c r="W40" t="n">
-        <v>525.2117974334313</v>
+        <v>997.9489679977103</v>
       </c>
       <c r="X40" t="n">
-        <v>510.2085480857856</v>
+        <v>878.8469924072097</v>
       </c>
       <c r="Y40" t="n">
-        <v>502.4022704926271</v>
+        <v>658.0544132636795</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1013.197809160679</v>
+        <v>1013.19780916068</v>
       </c>
       <c r="C41" t="n">
-        <v>857.2215937706389</v>
+        <v>857.2215937706396</v>
       </c>
       <c r="D41" t="n">
-        <v>711.94219671426</v>
+        <v>711.9421967142607</v>
       </c>
       <c r="E41" t="n">
-        <v>539.1402456663875</v>
+        <v>539.140245666388</v>
       </c>
       <c r="F41" t="n">
-        <v>341.1406424271515</v>
+        <v>341.140642427152</v>
       </c>
       <c r="G41" t="n">
-        <v>137.453453517644</v>
+        <v>137.4534535176441</v>
       </c>
       <c r="H41" t="n">
-        <v>36.45950065447403</v>
+        <v>36.45950065447404</v>
       </c>
       <c r="I41" t="n">
-        <v>36.45950065447403</v>
+        <v>36.45950065447404</v>
       </c>
       <c r="J41" t="n">
         <v>259.5621233199657</v>
@@ -7442,16 +7442,16 @@
         <v>1822.975032723702</v>
       </c>
       <c r="U41" t="n">
-        <v>1782.302774323519</v>
+        <v>1782.30277432352</v>
       </c>
       <c r="V41" t="n">
-        <v>1664.22618853032</v>
+        <v>1664.226188530321</v>
       </c>
       <c r="W41" t="n">
         <v>1524.443834810578</v>
       </c>
       <c r="X41" t="n">
-        <v>1363.964378099869</v>
+        <v>1363.96437809987</v>
       </c>
       <c r="Y41" t="n">
         <v>1186.811347674429</v>
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>341.0550829242831</v>
+        <v>359.8469395968523</v>
       </c>
       <c r="C42" t="n">
-        <v>166.6020536431561</v>
+        <v>185.3939103157253</v>
       </c>
       <c r="D42" t="n">
-        <v>36.45950065447403</v>
+        <v>36.45950065447404</v>
       </c>
       <c r="E42" t="n">
-        <v>36.45950065447403</v>
+        <v>36.45950065447404</v>
       </c>
       <c r="F42" t="n">
-        <v>36.45950065447403</v>
+        <v>36.45950065447404</v>
       </c>
       <c r="G42" t="n">
-        <v>36.45950065447403</v>
+        <v>36.45950065447404</v>
       </c>
       <c r="H42" t="n">
-        <v>36.45950065447403</v>
+        <v>36.45950065447404</v>
       </c>
       <c r="I42" t="n">
-        <v>36.45950065447403</v>
+        <v>36.45950065447404</v>
       </c>
       <c r="J42" t="n">
-        <v>66.5353360536385</v>
+        <v>175.6445146250627</v>
       </c>
       <c r="K42" t="n">
-        <v>169.2249524645854</v>
+        <v>529.0440154476615</v>
       </c>
       <c r="L42" t="n">
-        <v>620.4112730637016</v>
+        <v>713.4454185531085</v>
       </c>
       <c r="M42" t="n">
-        <v>854.9558810077426</v>
+        <v>947.9900264971495</v>
       </c>
       <c r="N42" t="n">
-        <v>1110.116831730547</v>
+        <v>1203.150977219954</v>
       </c>
       <c r="O42" t="n">
-        <v>1321.319456705213</v>
+        <v>1414.35360219462</v>
       </c>
       <c r="P42" t="n">
-        <v>1772.505777304329</v>
+        <v>1564.529262445839</v>
       </c>
       <c r="Q42" t="n">
         <v>1822.975032723702</v>
@@ -7515,25 +7515,25 @@
         <v>1815.625831608452</v>
       </c>
       <c r="S42" t="n">
-        <v>1670.276379859731</v>
+        <v>1670.276379859732</v>
       </c>
       <c r="T42" t="n">
         <v>1474.180551094238</v>
       </c>
       <c r="U42" t="n">
-        <v>1246.056346854714</v>
+        <v>1433.063540547351</v>
       </c>
       <c r="V42" t="n">
-        <v>1010.904238622971</v>
+        <v>1197.911432315609</v>
       </c>
       <c r="W42" t="n">
-        <v>756.6668818947699</v>
+        <v>943.6740755874071</v>
       </c>
       <c r="X42" t="n">
-        <v>548.815381689237</v>
+        <v>735.8225753818742</v>
       </c>
       <c r="Y42" t="n">
-        <v>341.0550829242831</v>
+        <v>528.0622766169204</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>329.0546631562167</v>
+        <v>36.45950065447404</v>
       </c>
       <c r="C43" t="n">
-        <v>160.1184802283099</v>
+        <v>36.45950065447404</v>
       </c>
       <c r="D43" t="n">
-        <v>160.1184802283099</v>
+        <v>36.45950065447404</v>
       </c>
       <c r="E43" t="n">
-        <v>160.1184802283099</v>
+        <v>36.45950065447404</v>
       </c>
       <c r="F43" t="n">
-        <v>160.1184802283099</v>
+        <v>36.45950065447404</v>
       </c>
       <c r="G43" t="n">
-        <v>160.1184802283099</v>
+        <v>36.45950065447404</v>
       </c>
       <c r="H43" t="n">
-        <v>160.1184802283099</v>
+        <v>36.45950065447404</v>
       </c>
       <c r="I43" t="n">
-        <v>41.19542549794072</v>
+        <v>36.45950065447404</v>
       </c>
       <c r="J43" t="n">
-        <v>36.45950065447403</v>
+        <v>36.45950065447404</v>
       </c>
       <c r="K43" t="n">
         <v>158.668631360416</v>
@@ -7576,43 +7576,43 @@
         <v>370.5806781359115</v>
       </c>
       <c r="M43" t="n">
-        <v>604.4013422937611</v>
+        <v>604.4013422937612</v>
       </c>
       <c r="N43" t="n">
-        <v>838.0968900946715</v>
+        <v>838.0968900946716</v>
       </c>
       <c r="O43" t="n">
-        <v>1037.936257694807</v>
+        <v>1037.936257694808</v>
       </c>
       <c r="P43" t="n">
         <v>1185.4126777654</v>
       </c>
       <c r="Q43" t="n">
-        <v>1204.082626561915</v>
+        <v>1204.082626561916</v>
       </c>
       <c r="R43" t="n">
-        <v>1204.082626561915</v>
+        <v>1204.082626561916</v>
       </c>
       <c r="S43" t="n">
-        <v>1204.082626561915</v>
+        <v>1204.082626561916</v>
       </c>
       <c r="T43" t="n">
         <v>1192.233761458144</v>
       </c>
       <c r="U43" t="n">
-        <v>1116.078023139815</v>
+        <v>903.0917215894433</v>
       </c>
       <c r="V43" t="n">
-        <v>1067.253963234725</v>
+        <v>648.4072333835564</v>
       </c>
       <c r="W43" t="n">
-        <v>777.8367931977642</v>
+        <v>358.9900633465958</v>
       </c>
       <c r="X43" t="n">
-        <v>549.8472422997469</v>
+        <v>131.0005124485785</v>
       </c>
       <c r="Y43" t="n">
-        <v>329.0546631562167</v>
+        <v>36.45950065447404</v>
       </c>
     </row>
     <row r="44">
@@ -7625,46 +7625,46 @@
         <v>1013.19780916068</v>
       </c>
       <c r="C44" t="n">
-        <v>857.2215937706401</v>
+        <v>857.2215937706396</v>
       </c>
       <c r="D44" t="n">
-        <v>711.9421967142612</v>
+        <v>711.9421967142607</v>
       </c>
       <c r="E44" t="n">
-        <v>539.1402456663884</v>
+        <v>539.140245666388</v>
       </c>
       <c r="F44" t="n">
-        <v>341.1406424271523</v>
+        <v>341.1406424271519</v>
       </c>
       <c r="G44" t="n">
         <v>137.4534535176441</v>
       </c>
       <c r="H44" t="n">
-        <v>36.45950065447405</v>
+        <v>36.45950065447404</v>
       </c>
       <c r="I44" t="n">
-        <v>36.45950065447405</v>
+        <v>36.45950065447404</v>
       </c>
       <c r="J44" t="n">
         <v>259.5621233199657</v>
       </c>
       <c r="K44" t="n">
-        <v>398.0530575731219</v>
+        <v>393.7759671090321</v>
       </c>
       <c r="L44" t="n">
-        <v>601.4589606512932</v>
+        <v>597.1818701872035</v>
       </c>
       <c r="M44" t="n">
-        <v>859.4566573915306</v>
+        <v>855.1795669274409</v>
       </c>
       <c r="N44" t="n">
-        <v>1126.242834972146</v>
+        <v>1121.965744508056</v>
       </c>
       <c r="O44" t="n">
-        <v>1364.826196048745</v>
+        <v>1360.549105584655</v>
       </c>
       <c r="P44" t="n">
-        <v>1533.950574047525</v>
+        <v>1533.950574047524</v>
       </c>
       <c r="Q44" t="n">
         <v>1822.975032723702</v>
@@ -7685,10 +7685,10 @@
         <v>1664.226188530321</v>
       </c>
       <c r="W44" t="n">
-        <v>1524.443834810579</v>
+        <v>1524.443834810578</v>
       </c>
       <c r="X44" t="n">
-        <v>1363.964378099871</v>
+        <v>1363.96437809987</v>
       </c>
       <c r="Y44" t="n">
         <v>1186.81134767443</v>
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>901.6138416831067</v>
+        <v>634.1147852417612</v>
       </c>
       <c r="C45" t="n">
-        <v>727.1608124019797</v>
+        <v>459.6617559606342</v>
       </c>
       <c r="D45" t="n">
-        <v>578.2264027407284</v>
+        <v>310.7273462993829</v>
       </c>
       <c r="E45" t="n">
-        <v>418.9889477352729</v>
+        <v>310.7273462993829</v>
       </c>
       <c r="F45" t="n">
-        <v>272.4543897621578</v>
+        <v>310.7273462993829</v>
       </c>
       <c r="G45" t="n">
-        <v>135.2346575108983</v>
+        <v>173.5076140481234</v>
       </c>
       <c r="H45" t="n">
-        <v>36.45950065447405</v>
+        <v>74.73245719169913</v>
       </c>
       <c r="I45" t="n">
-        <v>36.45950065447405</v>
+        <v>36.45950065447404</v>
       </c>
       <c r="J45" t="n">
-        <v>50.81438963805794</v>
+        <v>50.81438963805793</v>
       </c>
       <c r="K45" t="n">
-        <v>153.5040060490049</v>
+        <v>415.3245906914577</v>
       </c>
       <c r="L45" t="n">
-        <v>604.6903266481213</v>
+        <v>713.4454185531085</v>
       </c>
       <c r="M45" t="n">
-        <v>839.2349345921623</v>
+        <v>947.9900264971495</v>
       </c>
       <c r="N45" t="n">
-        <v>1094.395885314967</v>
+        <v>1203.150977219954</v>
       </c>
       <c r="O45" t="n">
-        <v>1305.598510289632</v>
+        <v>1414.35360219462</v>
       </c>
       <c r="P45" t="n">
-        <v>1756.784830888749</v>
+        <v>1564.529262445839</v>
       </c>
       <c r="Q45" t="n">
         <v>1822.975032723702</v>
@@ -7758,19 +7758,19 @@
         <v>1822.975032723702</v>
       </c>
       <c r="U45" t="n">
-        <v>1766.978942428073</v>
+        <v>1707.33138619226</v>
       </c>
       <c r="V45" t="n">
-        <v>1531.82683419633</v>
+        <v>1472.179277960518</v>
       </c>
       <c r="W45" t="n">
-        <v>1277.589477468129</v>
+        <v>1217.941921232316</v>
       </c>
       <c r="X45" t="n">
-        <v>1277.589477468129</v>
+        <v>1010.090421026783</v>
       </c>
       <c r="Y45" t="n">
-        <v>1069.829178703175</v>
+        <v>802.3301222618293</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>502.9102418374703</v>
+        <v>336.1805364057914</v>
       </c>
       <c r="C46" t="n">
-        <v>502.9102418374703</v>
+        <v>336.1805364057914</v>
       </c>
       <c r="D46" t="n">
-        <v>352.7936024251345</v>
+        <v>188.0853729958511</v>
       </c>
       <c r="E46" t="n">
-        <v>204.8805088427414</v>
+        <v>188.0853729958511</v>
       </c>
       <c r="F46" t="n">
-        <v>204.8805088427414</v>
+        <v>41.19542549794073</v>
       </c>
       <c r="G46" t="n">
-        <v>36.45950065447405</v>
+        <v>41.19542549794073</v>
       </c>
       <c r="H46" t="n">
-        <v>36.45950065447405</v>
+        <v>41.19542549794073</v>
       </c>
       <c r="I46" t="n">
-        <v>36.45950065447405</v>
+        <v>41.19542549794073</v>
       </c>
       <c r="J46" t="n">
-        <v>36.45950065447405</v>
+        <v>36.45950065447404</v>
       </c>
       <c r="K46" t="n">
         <v>158.668631360416</v>
@@ -7834,22 +7834,22 @@
         <v>1204.082626561916</v>
       </c>
       <c r="T46" t="n">
-        <v>1192.233761458144</v>
+        <v>979.247459907773</v>
       </c>
       <c r="U46" t="n">
-        <v>1116.078023139815</v>
+        <v>690.1054200390718</v>
       </c>
       <c r="V46" t="n">
-        <v>1074.379836484299</v>
+        <v>648.4072333835564</v>
       </c>
       <c r="W46" t="n">
-        <v>997.9489679977103</v>
+        <v>571.9763648969673</v>
       </c>
       <c r="X46" t="n">
-        <v>905.3512858112401</v>
+        <v>556.9731155493215</v>
       </c>
       <c r="Y46" t="n">
-        <v>684.55870666771</v>
+        <v>336.1805364057914</v>
       </c>
     </row>
   </sheetData>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>39.95243602841498</v>
+        <v>39.95243602841501</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>58.68794272922275</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8781,13 +8781,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>144.9907886035031</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>77.58769599231718</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>77.58769599231812</v>
+        <v>203.6787313327259</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>31.61600144718392</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>172.0627298855424</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>203.6787313327259</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,10 +9486,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>121.4130280283769</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>82.26570330434998</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>203.6787313327259</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9647,10 +9647,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>28.45884230992323</v>
       </c>
       <c r="O23" t="n">
-        <v>54.22282615449197</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>39.95243602841501</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>37.57334009843055</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>131.8105221468097</v>
+        <v>220.3282173887865</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>119.2392897862576</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9887,7 +9887,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>6.797443305765654</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>177.3380202371918</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>74.26895887005304</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10112,10 +10112,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>119.2392897862585</v>
+        <v>215.1017961652254</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10127,7 +10127,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>9.144147705447352</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>39.95243602841501</v>
+        <v>49.09658373386173</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>70.96291194631112</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>74.26895887005304</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>190.5918751301705</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>195.1400240998776</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10601,10 +10601,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>4.320293398070476</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>39.95243602841501</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>269.4797146400699</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>218.8300127829045</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>2.08180908143089</v>
       </c>
       <c r="O36" t="n">
-        <v>242.4077733580307</v>
+        <v>242.4077733580309</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>77.52314256467395</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>216.635284057975</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10838,10 +10838,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>4.320293398069765</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>39.95243602841501</v>
@@ -10902,10 +10902,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>253.2423074865168</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>198.854358209788</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>4.320293398069765</v>
+        <v>4.320293398069992</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>15.8797438541218</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>253.2423074865171</v>
       </c>
       <c r="L42" t="n">
-        <v>269.4797146400699</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,10 +11154,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>304.0511720685829</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>4.320293398070419</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>4.320293398069992</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,10 +11376,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>269.47971464007</v>
+        <v>114.8681058143472</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>304.0511720685831</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>15.87974385412232</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>251.647527393465</v>
+        <v>187.5093658503019</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>234.1865775009918</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>250.8440558022462</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>275.7897314716959</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>218.3872112031984</v>
+        <v>281.4204412852647</v>
       </c>
       <c r="H11" t="n">
-        <v>179.7541375993905</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>14.22031640604281</v>
+        <v>14.22031640604268</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>218.1546544473973</v>
       </c>
       <c r="X11" t="n">
-        <v>238.6447864084534</v>
+        <v>238.6447864084533</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>255.1516243860378</v>
       </c>
     </row>
     <row r="12">
@@ -23498,13 +23498,13 @@
         <v>234.1865775009918</v>
       </c>
       <c r="D14" t="n">
-        <v>223.5967273506672</v>
+        <v>149.8766123884616</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>250.844055802246</v>
       </c>
       <c r="F14" t="n">
-        <v>44.2944981065761</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>14.22031640604271</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>79.77012426485209</v>
+        <v>79.77012426485206</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>120.0356600810324</v>
       </c>
       <c r="V14" t="n">
         <v>196.6659442001192</v>
@@ -23558,7 +23558,7 @@
         <v>218.1546544473973</v>
       </c>
       <c r="X14" t="n">
-        <v>238.6447864084533</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23786,13 +23786,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.18953227273417</v>
+        <v>13.18953227273406</v>
       </c>
       <c r="V17" t="n">
-        <v>39.95425964128223</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>39.95425964128172</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -24026,10 +24026,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>53.14379191401616</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>53.14379191401564</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>7.673861546209082e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25682,7 +25682,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>-5.929595211827873e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>657758.7879590133</v>
+        <v>657758.7879590134</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>756345.742282914</v>
+        <v>756345.7422829141</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>756345.742282914</v>
+        <v>756345.7422829141</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>763791.3151706007</v>
+        <v>763791.3151706005</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>866220.1377428534</v>
+        <v>866220.1377428533</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>866220.1377428534</v>
+        <v>866220.1377428533</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>696384.8879094827</v>
+      </c>
+      <c r="C2" t="n">
+        <v>696384.8879094827</v>
+      </c>
+      <c r="D2" t="n">
         <v>696384.8879094826</v>
       </c>
-      <c r="C2" t="n">
-        <v>696384.8879094826</v>
-      </c>
-      <c r="D2" t="n">
-        <v>696384.887909483</v>
-      </c>
       <c r="E2" t="n">
-        <v>601179.8941178326</v>
+        <v>601179.8941178324</v>
       </c>
       <c r="F2" t="n">
-        <v>601179.8941178323</v>
+        <v>601179.8941178325</v>
       </c>
       <c r="G2" t="n">
-        <v>694289.7954237389</v>
+        <v>694289.7954237387</v>
       </c>
       <c r="H2" t="n">
-        <v>694289.7954237384</v>
+        <v>694289.795423739</v>
       </c>
       <c r="I2" t="n">
+        <v>697885.5043846412</v>
+      </c>
+      <c r="J2" t="n">
         <v>697885.5043846413</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>697885.5043846415</v>
+      </c>
+      <c r="L2" t="n">
         <v>697885.5043846414</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>697885.5043846415</v>
+      </c>
+      <c r="N2" t="n">
+        <v>697885.5043846413</v>
+      </c>
+      <c r="O2" t="n">
+        <v>697885.504384641</v>
+      </c>
+      <c r="P2" t="n">
         <v>697885.5043846412</v>
-      </c>
-      <c r="L2" t="n">
-        <v>697885.5043846418</v>
-      </c>
-      <c r="M2" t="n">
-        <v>697885.5043846412</v>
-      </c>
-      <c r="N2" t="n">
-        <v>697885.5043846412</v>
-      </c>
-      <c r="O2" t="n">
-        <v>697885.5043846413</v>
-      </c>
-      <c r="P2" t="n">
-        <v>697885.5043846415</v>
       </c>
     </row>
     <row r="3">
@@ -26375,16 +26375,16 @@
         <v>770624.7410272714</v>
       </c>
       <c r="F3" t="n">
-        <v>9.094947017729282e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>85476.90224663859</v>
+        <v>85476.90224663865</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3641.530171502623</v>
+        <v>3641.530171502592</v>
       </c>
       <c r="J3" t="n">
         <v>115659.6590606171</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>85476.90224663859</v>
+        <v>85476.90224663865</v>
       </c>
       <c r="M3" t="n">
-        <v>83208.24858125567</v>
+        <v>83208.24858125564</v>
       </c>
       <c r="N3" t="n">
         <v>2.273736754432321e-11</v>
@@ -26424,13 +26424,13 @@
         <v>463150.7311021098</v>
       </c>
       <c r="E4" t="n">
-        <v>162932.9706038655</v>
+        <v>162932.9706038656</v>
       </c>
       <c r="F4" t="n">
         <v>162932.9706038656</v>
       </c>
       <c r="G4" t="n">
-        <v>225455.4012801175</v>
+        <v>225455.4012801176</v>
       </c>
       <c r="H4" t="n">
         <v>225455.4012801176</v>
@@ -26439,16 +26439,16 @@
         <v>227817.5680803866</v>
       </c>
       <c r="J4" t="n">
-        <v>226398.9796462778</v>
+        <v>226398.9796462776</v>
       </c>
       <c r="K4" t="n">
-        <v>226398.9796462777</v>
+        <v>226398.9796462776</v>
       </c>
       <c r="L4" t="n">
         <v>226398.9796462777</v>
       </c>
       <c r="M4" t="n">
-        <v>227497.7032922599</v>
+        <v>227497.70329226</v>
       </c>
       <c r="N4" t="n">
         <v>227497.70329226</v>
@@ -26479,7 +26479,7 @@
         <v>47968.47435149252</v>
       </c>
       <c r="F5" t="n">
-        <v>47968.47435149254</v>
+        <v>47968.47435149252</v>
       </c>
       <c r="G5" t="n">
         <v>56950.92147020836</v>
@@ -26491,7 +26491,7 @@
         <v>57783.51849875202</v>
       </c>
       <c r="J5" t="n">
-        <v>73639.84661324268</v>
+        <v>73639.84661324267</v>
       </c>
       <c r="K5" t="n">
         <v>73639.84661324267</v>
@@ -26500,16 +26500,16 @@
         <v>73639.84661324267</v>
       </c>
       <c r="M5" t="n">
-        <v>60597.62160138965</v>
+        <v>60597.62160138966</v>
       </c>
       <c r="N5" t="n">
         <v>60597.62160138966</v>
       </c>
       <c r="O5" t="n">
-        <v>60597.62160138966</v>
+        <v>60597.62160138965</v>
       </c>
       <c r="P5" t="n">
-        <v>60597.62160138966</v>
+        <v>60597.62160138965</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>199606.5568073728</v>
+        <v>199602.1432295048</v>
       </c>
       <c r="C6" t="n">
-        <v>199606.5568073728</v>
+        <v>199602.1432295048</v>
       </c>
       <c r="D6" t="n">
-        <v>199606.5568073733</v>
+        <v>199602.1432295047</v>
       </c>
       <c r="E6" t="n">
-        <v>-380346.2918647968</v>
+        <v>-380630.7201302877</v>
       </c>
       <c r="F6" t="n">
-        <v>390278.4491624741</v>
+        <v>389994.0208969838</v>
       </c>
       <c r="G6" t="n">
-        <v>326406.5704267744</v>
+        <v>326395.9948121831</v>
       </c>
       <c r="H6" t="n">
-        <v>411883.4726734125</v>
+        <v>411872.8970588221</v>
       </c>
       <c r="I6" t="n">
-        <v>408642.887634</v>
+        <v>408642.8876339999</v>
       </c>
       <c r="J6" t="n">
-        <v>282187.0190645039</v>
+        <v>282187.019064504</v>
       </c>
       <c r="K6" t="n">
-        <v>397846.6781251208</v>
+        <v>397846.6781251213</v>
       </c>
       <c r="L6" t="n">
-        <v>312369.7758784828</v>
+        <v>312369.7758784824</v>
       </c>
       <c r="M6" t="n">
-        <v>326581.9309097359</v>
+        <v>326581.9309097363</v>
       </c>
       <c r="N6" t="n">
-        <v>409790.1794909915</v>
+        <v>409790.1794909917</v>
       </c>
       <c r="O6" t="n">
+        <v>409790.1794909913</v>
+      </c>
+      <c r="P6" t="n">
         <v>409790.1794909916</v>
-      </c>
-      <c r="P6" t="n">
-        <v>409790.1794909919</v>
       </c>
     </row>
   </sheetData>
@@ -26692,22 +26692,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="F2" t="n">
         <v>131.0863142700157</v>
       </c>
       <c r="G2" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="H2" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="I2" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="J2" t="n">
-        <v>106.8461278082983</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="K2" t="n">
         <v>106.8461278082982</v>
@@ -26719,10 +26719,10 @@
         <v>210.8564385348678</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8564385348679</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="O2" t="n">
-        <v>210.8564385348679</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="P2" t="n">
         <v>210.8564385348678</v>
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>695.5005125138341</v>
+        <v>695.500512513834</v>
       </c>
       <c r="F3" t="n">
         <v>695.500512513834</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>358.3267734263979</v>
+        <v>358.3267734263978</v>
       </c>
       <c r="F4" t="n">
-        <v>358.3267734263981</v>
+        <v>358.3267734263978</v>
       </c>
       <c r="G4" t="n">
-        <v>358.3267734263979</v>
+        <v>358.3267734263978</v>
       </c>
       <c r="H4" t="n">
-        <v>358.3267734263981</v>
+        <v>358.3267734263978</v>
       </c>
       <c r="I4" t="n">
-        <v>372.0208035011294</v>
+        <v>372.020803501129</v>
       </c>
       <c r="J4" t="n">
-        <v>814.0705316073236</v>
+        <v>814.0705316073233</v>
       </c>
       <c r="K4" t="n">
-        <v>814.0705316073236</v>
+        <v>814.0705316073233</v>
       </c>
       <c r="L4" t="n">
-        <v>814.0705316073236</v>
+        <v>814.0705316073233</v>
       </c>
       <c r="M4" t="n">
-        <v>455.7437581809255</v>
+        <v>455.7437581809256</v>
       </c>
       <c r="N4" t="n">
-        <v>455.7437581809255</v>
+        <v>455.7437581809256</v>
       </c>
       <c r="O4" t="n">
         <v>455.7437581809255</v>
       </c>
       <c r="P4" t="n">
-        <v>455.7437581809256</v>
+        <v>455.7437581809255</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="F2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>106.8461278082982</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>106.8461278082982</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="M2" t="n">
-        <v>104.0103107265696</v>
+        <v>104.0103107265695</v>
       </c>
       <c r="N2" t="n">
         <v>2.842170943040401e-14</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>695.5005125138341</v>
+        <v>695.500512513834</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>358.3267734263979</v>
+        <v>358.3267734263978</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>13.6940300747313</v>
+        <v>13.69403007473119</v>
       </c>
       <c r="J4" t="n">
-        <v>442.0497281061942</v>
+        <v>442.0497281061943</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="K2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>106.8461278082982</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>358.3267734263979</v>
+        <v>358.3267734263978</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="C11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="D11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="E11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="F11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="G11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="H11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="I11" t="n">
         <v>102.6837950631111</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="T11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="U11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="V11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="W11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="X11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="Y11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
     </row>
     <row r="12">
@@ -28166,25 +28166,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>131.0863142700156</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>131.0863142700156</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="E12" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="F12" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>43.57596599225</v>
       </c>
       <c r="I12" t="n">
         <v>37.89022697185283</v>
@@ -28214,25 +28214,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.275709104097473</v>
+        <v>7.275709104097487</v>
       </c>
       <c r="S12" t="n">
-        <v>131.0863142700156</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="U12" t="n">
-        <v>43.57596599225047</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="V12" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="W12" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -28245,31 +28245,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="C13" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="D13" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="F13" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="G13" t="n">
-        <v>131.0863142700156</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0863142700156</v>
+        <v>75.02036795967489</v>
       </c>
       <c r="I13" t="n">
-        <v>56.97931227769412</v>
+        <v>117.7338241830655</v>
       </c>
       <c r="J13" t="n">
-        <v>4.688565595032003</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28296,25 +28296,25 @@
         <v>120.9008416248183</v>
       </c>
       <c r="S13" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="T13" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="U13" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="V13" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="W13" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="X13" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="Y13" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
     </row>
     <row r="14">
@@ -28403,19 +28403,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>84.15058407850304</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="F15" t="n">
-        <v>122.0408110503553</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="G15" t="n">
         <v>131.0863142700157</v>
@@ -28424,7 +28424,7 @@
         <v>97.78740528786003</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>37.89022697185283</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28460,16 +28460,16 @@
         <v>131.0863142700157</v>
       </c>
       <c r="U15" t="n">
-        <v>131.0863142700157</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>131.0863142700157</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>131.0863142700157</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>131.0863142700157</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -28488,7 +28488,7 @@
         <v>131.0863142700157</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="E16" t="n">
         <v>131.0863142700157</v>
@@ -28503,10 +28503,10 @@
         <v>131.0863142700157</v>
       </c>
       <c r="I16" t="n">
-        <v>56.97931227769307</v>
+        <v>117.7338241830655</v>
       </c>
       <c r="J16" t="n">
-        <v>4.688565595032017</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28530,13 +28530,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>120.9008416248183</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>131.0863142700157</v>
       </c>
       <c r="T16" t="n">
-        <v>131.0863142700157</v>
+        <v>64.83489531447756</v>
       </c>
       <c r="U16" t="n">
         <v>131.0863142700157</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="C17" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="D17" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="E17" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="F17" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="G17" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="H17" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="I17" t="n">
         <v>102.6837950631111</v>
@@ -28618,19 +28618,19 @@
         <v>210.8564385348678</v>
       </c>
       <c r="U17" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="V17" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="W17" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="X17" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="Y17" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
     </row>
     <row r="18">
@@ -28643,16 +28643,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>135.8475349287469</v>
@@ -28694,16 +28694,16 @@
         <v>143.8959572312332</v>
       </c>
       <c r="T18" t="n">
-        <v>194.1348704778385</v>
+        <v>137.0336613787468</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8429621971285</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>107.1230989560933</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -28722,7 +28722,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -28734,10 +28734,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>143.4160184302004</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>151.076361011726</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>117.7338241830655</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>120.9008416248183</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>202.1596393076441</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>222.5868149876011</v>
       </c>
       <c r="U19" t="n">
-        <v>237.932442078314</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>134.6765579725854</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="C20" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="D20" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="E20" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="F20" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="G20" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="H20" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="I20" t="n">
         <v>102.6837950631111</v>
@@ -28855,19 +28855,19 @@
         <v>210.8564385348678</v>
       </c>
       <c r="U20" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="V20" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="W20" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="X20" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="Y20" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
     </row>
     <row r="21">
@@ -28883,13 +28883,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>19.38914327853152</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>135.8475349287469</v>
@@ -28931,16 +28931,16 @@
         <v>143.8959572312332</v>
       </c>
       <c r="T21" t="n">
-        <v>194.1348704778385</v>
+        <v>45.50527737741621</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -28956,16 +28956,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>120.9008416248183</v>
       </c>
       <c r="S22" t="n">
-        <v>202.1596393076441</v>
+        <v>4.393851717209742</v>
       </c>
       <c r="T22" t="n">
-        <v>222.5868149876011</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>96.78336220917191</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>237.932442078314</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="C23" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="D23" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="E23" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="F23" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="G23" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="H23" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="I23" t="n">
         <v>102.6837950631111</v>
@@ -29092,19 +29092,19 @@
         <v>210.8564385348678</v>
       </c>
       <c r="U23" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="V23" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="W23" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="X23" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="Y23" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
     </row>
     <row r="24">
@@ -29126,7 +29126,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>8.813370966125262</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>135.8475349287469</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.275709104097487</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>143.8959572312332</v>
@@ -29177,7 +29177,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>16.08908007022407</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -29205,7 +29205,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.7367981063846</v>
@@ -29247,22 +29247,22 @@
         <v>202.1596393076441</v>
       </c>
       <c r="T25" t="n">
-        <v>96.56720742854364</v>
+        <v>222.5868149876011</v>
       </c>
       <c r="U25" t="n">
-        <v>237.932442078314</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>237.9324420783141</v>
       </c>
       <c r="W25" t="n">
-        <v>237.932442078314</v>
+        <v>26.52644250081585</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>106.8461278082983</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="C26" t="n">
-        <v>106.8461278082983</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="D26" t="n">
-        <v>106.8461278082983</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="E26" t="n">
-        <v>106.8461278082983</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="F26" t="n">
-        <v>106.8461278082983</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="G26" t="n">
-        <v>106.8461278082983</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="H26" t="n">
-        <v>106.8461278082983</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="I26" t="n">
         <v>102.6837950631111</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>106.8461278082983</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="T26" t="n">
-        <v>106.8461278082983</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="U26" t="n">
-        <v>106.8461278082983</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="V26" t="n">
-        <v>106.8461278082983</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="W26" t="n">
-        <v>106.8461278082983</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="X26" t="n">
-        <v>106.8461278082983</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="Y26" t="n">
-        <v>106.8461278082983</v>
+        <v>106.8461278082982</v>
       </c>
     </row>
     <row r="27">
@@ -29430,34 +29430,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>106.8461278082983</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="C28" t="n">
-        <v>106.8461278082983</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="D28" t="n">
-        <v>106.8461278082983</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="E28" t="n">
-        <v>106.8461278082983</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="F28" t="n">
-        <v>106.8461278082983</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="G28" t="n">
-        <v>106.8461278082983</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="H28" t="n">
-        <v>106.8461278082983</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="I28" t="n">
-        <v>106.8461278082983</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="J28" t="n">
-        <v>106.8461278082983</v>
+        <v>4.688565595032017</v>
       </c>
       <c r="K28" t="n">
-        <v>73.80835399930621</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29472,34 +29472,34 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>69.11978840427608</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>106.8461278082983</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="S28" t="n">
-        <v>106.8461278082983</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="T28" t="n">
-        <v>106.8461278082983</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="U28" t="n">
-        <v>106.8461278082983</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="V28" t="n">
-        <v>106.8461278082983</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="W28" t="n">
-        <v>106.8461278082983</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="X28" t="n">
-        <v>106.8461278082983</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="Y28" t="n">
-        <v>106.8461278082983</v>
+        <v>106.8461278082982</v>
       </c>
     </row>
     <row r="29">
@@ -29697,10 +29697,10 @@
         <v>106.8461278082982</v>
       </c>
       <c r="L31" t="n">
-        <v>69.11978840427594</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>69.11978840427602</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -29928,28 +29928,28 @@
         <v>106.8461278082982</v>
       </c>
       <c r="J34" t="n">
-        <v>73.808353999308</v>
+        <v>4.688565595032017</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>69.11978840427611</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
         <v>106.8461278082982</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>106.8461278082982</v>
@@ -30074,16 +30074,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.8475349287469</v>
       </c>
       <c r="H36" t="n">
-        <v>20.25416707968161</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>37.89022697185283</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30113,10 +30113,10 @@
         <v>7.275709104097487</v>
       </c>
       <c r="S36" t="n">
-        <v>143.8959572312332</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>194.1348704778385</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>210.8564385348678</v>
@@ -30125,13 +30125,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>199.7142034479382</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -30156,7 +30156,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.7367981063846</v>
+        <v>37.25979381120834</v>
       </c>
       <c r="H37" t="n">
         <v>151.076361011726</v>
@@ -30192,7 +30192,7 @@
         <v>120.9008416248183</v>
       </c>
       <c r="S37" t="n">
-        <v>72.68263501246781</v>
+        <v>202.1596393076441</v>
       </c>
       <c r="T37" t="n">
         <v>210.8564385348678</v>
@@ -30204,13 +30204,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="X37" t="n">
         <v>210.8564385348678</v>
       </c>
       <c r="Y37" t="n">
-        <v>210.8564385348678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>210.8564385348679</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="C38" t="n">
-        <v>210.8564385348679</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="D38" t="n">
-        <v>210.8564385348679</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="E38" t="n">
-        <v>210.8564385348679</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="F38" t="n">
-        <v>210.8564385348679</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="G38" t="n">
-        <v>210.8564385348679</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="H38" t="n">
-        <v>210.8564385348679</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="I38" t="n">
         <v>102.6837950631111</v>
@@ -30274,22 +30274,22 @@
         <v>145.3066306760584</v>
       </c>
       <c r="T38" t="n">
-        <v>210.8564385348679</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="U38" t="n">
-        <v>210.8564385348679</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="V38" t="n">
-        <v>210.8564385348679</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="W38" t="n">
-        <v>210.8564385348679</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="X38" t="n">
-        <v>210.8564385348679</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="Y38" t="n">
-        <v>210.8564385348679</v>
+        <v>210.8564385348678</v>
       </c>
     </row>
     <row r="39">
@@ -30308,7 +30308,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -30320,7 +30320,7 @@
         <v>97.78740528786003</v>
       </c>
       <c r="I39" t="n">
-        <v>37.89022697185283</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,16 +30347,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.275709104097487</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>143.8959572312332</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>194.1348704778385</v>
       </c>
       <c r="U39" t="n">
-        <v>33.96545542038007</v>
+        <v>186.5375587051252</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.7367981063846</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>151.076361011726</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>117.7338241830655</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>4.688565595032017</v>
@@ -30432,22 +30432,22 @@
         <v>202.1596393076441</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="U40" t="n">
-        <v>210.8564385348679</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="V40" t="n">
-        <v>164.5595167459672</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="X40" t="n">
-        <v>210.8564385348679</v>
+        <v>107.7986995544416</v>
       </c>
       <c r="Y40" t="n">
-        <v>210.8564385348679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>210.8564385348679</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="C41" t="n">
-        <v>210.8564385348679</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="D41" t="n">
-        <v>210.8564385348679</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="E41" t="n">
-        <v>210.8564385348679</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="F41" t="n">
-        <v>210.8564385348679</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="G41" t="n">
-        <v>210.8564385348679</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="H41" t="n">
-        <v>210.8564385348679</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="I41" t="n">
         <v>102.6837950631111</v>
@@ -30514,19 +30514,19 @@
         <v>210.8564385348678</v>
       </c>
       <c r="U41" t="n">
-        <v>210.8564385348679</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="V41" t="n">
-        <v>210.8564385348679</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="W41" t="n">
-        <v>210.8564385348679</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="X41" t="n">
-        <v>210.8564385348679</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="Y41" t="n">
-        <v>210.8564385348679</v>
+        <v>210.8564385348678</v>
       </c>
     </row>
     <row r="42">
@@ -30536,13 +30536,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>18.60393810584353</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -30593,7 +30593,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>185.1371217557106</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30618,7 +30618,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -30636,10 +30636,10 @@
         <v>151.076361011726</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>117.7338241830655</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>4.688565595032017</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30669,13 +30669,13 @@
         <v>202.1596393076441</v>
       </c>
       <c r="T43" t="n">
-        <v>210.8564385348679</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="U43" t="n">
-        <v>210.8564385348679</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>203.8018240177888</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -30684,7 +30684,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>124.9890516759314</v>
       </c>
     </row>
     <row r="44">
@@ -30782,10 +30782,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>37.89022697185283</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30830,7 +30830,7 @@
         <v>194.1348704778385</v>
       </c>
       <c r="U45" t="n">
-        <v>170.4068328044551</v>
+        <v>111.3557521310011</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30839,7 +30839,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30852,22 +30852,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>2.001261242371498</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.7367981063846</v>
       </c>
       <c r="H46" t="n">
         <v>151.076361011726</v>
@@ -30876,7 +30876,7 @@
         <v>117.7338241830655</v>
       </c>
       <c r="J46" t="n">
-        <v>4.688565595032017</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30906,10 +30906,10 @@
         <v>202.1596393076441</v>
       </c>
       <c r="T46" t="n">
-        <v>210.8564385348678</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>210.8564385348678</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>210.8564385348678</v>
@@ -30918,7 +30918,7 @@
         <v>210.8564385348678</v>
       </c>
       <c r="X46" t="n">
-        <v>134.0379500244317</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -31753,7 +31753,7 @@
         <v>2.795981959854607</v>
       </c>
       <c r="H11" t="n">
-        <v>28.63435024636101</v>
+        <v>28.634350246361</v>
       </c>
       <c r="I11" t="n">
         <v>107.7920945072948</v>
@@ -31765,10 +31765,10 @@
         <v>355.6593902258558</v>
       </c>
       <c r="L11" t="n">
-        <v>441.2269231297564</v>
+        <v>441.2269231297562</v>
       </c>
       <c r="M11" t="n">
-        <v>490.9499673083207</v>
+        <v>490.9499673083206</v>
       </c>
       <c r="N11" t="n">
         <v>498.8940510517576</v>
@@ -31780,13 +31780,13 @@
         <v>402.0657008045426</v>
       </c>
       <c r="Q11" t="n">
-        <v>301.9345968672495</v>
+        <v>301.9345968672494</v>
       </c>
       <c r="R11" t="n">
         <v>175.6331017857171</v>
       </c>
       <c r="S11" t="n">
-        <v>63.71343891018693</v>
+        <v>63.71343891018692</v>
       </c>
       <c r="T11" t="n">
         <v>12.23941102926355</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.495982234463719</v>
+        <v>1.495982234463718</v>
       </c>
       <c r="H12" t="n">
         <v>14.44803894863644</v>
       </c>
       <c r="I12" t="n">
-        <v>51.50640587956225</v>
+        <v>51.50640587956224</v>
       </c>
       <c r="J12" t="n">
-        <v>141.3375145288727</v>
+        <v>141.3375145288726</v>
       </c>
       <c r="K12" t="n">
         <v>241.5683242379418</v>
@@ -31850,7 +31850,7 @@
         <v>379.0477793200395</v>
       </c>
       <c r="N12" t="n">
-        <v>389.0800461467722</v>
+        <v>389.0800461467721</v>
       </c>
       <c r="O12" t="n">
         <v>355.9322292673392</v>
@@ -31859,19 +31859,19 @@
         <v>285.6669935266727</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.9608199641758</v>
+        <v>190.9608199641757</v>
       </c>
       <c r="R12" t="n">
-        <v>92.88212504854566</v>
+        <v>92.88212504854565</v>
       </c>
       <c r="S12" t="n">
-        <v>27.78721387260458</v>
+        <v>27.78721387260457</v>
       </c>
       <c r="T12" t="n">
-        <v>6.029858216983144</v>
+        <v>6.029858216983143</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09841988384629732</v>
+        <v>0.09841988384629731</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,13 +31914,13 @@
         <v>11.15081149571361</v>
       </c>
       <c r="I13" t="n">
-        <v>37.71665074419285</v>
+        <v>37.71665074419284</v>
       </c>
       <c r="J13" t="n">
-        <v>88.67061452164077</v>
+        <v>88.67061452164076</v>
       </c>
       <c r="K13" t="n">
-        <v>145.7130581955213</v>
+        <v>145.7130581955212</v>
       </c>
       <c r="L13" t="n">
         <v>186.4625472401843</v>
@@ -31938,19 +31938,19 @@
         <v>151.6875216144925</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.020577389589</v>
+        <v>105.0205773895889</v>
       </c>
       <c r="R13" t="n">
-        <v>56.39254975235119</v>
+        <v>56.39254975235117</v>
       </c>
       <c r="S13" t="n">
-        <v>21.85695872932819</v>
+        <v>21.85695872932818</v>
       </c>
       <c r="T13" t="n">
-        <v>5.358774440680359</v>
+        <v>5.358774440680358</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06840988647677064</v>
+        <v>0.06840988647677063</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -35407,16 +35407,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>56.2595693385239</v>
+        <v>56.25956933852387</v>
       </c>
       <c r="K11" t="n">
-        <v>135.5695391808753</v>
+        <v>135.5695391808752</v>
       </c>
       <c r="L11" t="n">
-        <v>205.4605081597691</v>
+        <v>205.460508159769</v>
       </c>
       <c r="M11" t="n">
-        <v>260.6037340810479</v>
+        <v>260.6037340810478</v>
       </c>
       <c r="N11" t="n">
         <v>269.4809874551667</v>
@@ -35425,10 +35425,10 @@
         <v>240.9932940167666</v>
       </c>
       <c r="P11" t="n">
-        <v>170.8327050492731</v>
+        <v>170.832705049273</v>
       </c>
       <c r="Q11" t="n">
-        <v>79.62890699279998</v>
+        <v>79.62890699279993</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>140.5909232026148</v>
+        <v>73.18783059142871</v>
       </c>
       <c r="K12" t="n">
         <v>103.7268852635828</v>
       </c>
       <c r="L12" t="n">
-        <v>186.2640435408557</v>
+        <v>186.2640435408556</v>
       </c>
       <c r="M12" t="n">
-        <v>236.9137453980212</v>
+        <v>236.9137453980211</v>
       </c>
       <c r="N12" t="n">
         <v>257.7383340634389</v>
       </c>
       <c r="O12" t="n">
-        <v>213.3359848228948</v>
+        <v>358.3267734263978</v>
       </c>
       <c r="P12" t="n">
         <v>151.6925861123425</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.5667418704714</v>
+        <v>50.97904587815421</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,7 +35571,7 @@
         <v>123.4435663696384</v>
       </c>
       <c r="L13" t="n">
-        <v>214.0525725005005</v>
+        <v>214.0525725005004</v>
       </c>
       <c r="M13" t="n">
         <v>236.182489048333</v>
@@ -35586,7 +35586,7 @@
         <v>148.966080879386</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.85853413789457</v>
+        <v>18.85853413789455</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>140.5909232026148</v>
+        <v>14.49988786220595</v>
       </c>
       <c r="K15" t="n">
         <v>103.7268852635828</v>
@@ -35744,7 +35744,7 @@
         <v>151.6925861123425</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.5667418704723</v>
+        <v>254.6577772108801</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>170.832705049273</v>
       </c>
       <c r="Q17" t="n">
-        <v>79.6289069927998</v>
+        <v>79.62890699279993</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>46.11588930938987</v>
+        <v>14.49988786220595</v>
       </c>
       <c r="K18" t="n">
         <v>103.7268852635828</v>
       </c>
       <c r="L18" t="n">
-        <v>358.3267734263979</v>
+        <v>186.2640435408556</v>
       </c>
       <c r="M18" t="n">
         <v>236.9137453980211</v>
@@ -35981,7 +35981,7 @@
         <v>151.6925861123425</v>
       </c>
       <c r="Q18" t="n">
-        <v>50.97904587815421</v>
+        <v>254.6577772108801</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,10 +36206,10 @@
         <v>186.2640435408556</v>
       </c>
       <c r="M21" t="n">
-        <v>358.3267734263981</v>
+        <v>236.9137453980211</v>
       </c>
       <c r="N21" t="n">
-        <v>340.0040373677888</v>
+        <v>257.7383340634389</v>
       </c>
       <c r="O21" t="n">
         <v>213.3359848228947</v>
@@ -36218,7 +36218,7 @@
         <v>151.6925861123425</v>
       </c>
       <c r="Q21" t="n">
-        <v>50.97904587815421</v>
+        <v>254.6577772108801</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36367,10 +36367,10 @@
         <v>260.6037340810478</v>
       </c>
       <c r="N23" t="n">
-        <v>269.4809874551667</v>
+        <v>297.9398297650899</v>
       </c>
       <c r="O23" t="n">
-        <v>295.2161201712585</v>
+        <v>240.9932940167666</v>
       </c>
       <c r="P23" t="n">
         <v>170.832705049273</v>
@@ -36379,7 +36379,7 @@
         <v>79.62890699279993</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>25.76398384456743</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>140.5909232026148</v>
+        <v>14.49988786220595</v>
       </c>
       <c r="K24" t="n">
-        <v>103.7268852635828</v>
+        <v>141.3002253620133</v>
       </c>
       <c r="L24" t="n">
         <v>186.2640435408556</v>
@@ -36452,7 +36452,7 @@
         <v>213.3359848228947</v>
       </c>
       <c r="P24" t="n">
-        <v>283.5031082591522</v>
+        <v>372.020803501129</v>
       </c>
       <c r="Q24" t="n">
         <v>50.97904587815421</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>225.3561845105976</v>
+        <v>56.25956933852387</v>
       </c>
       <c r="K26" t="n">
-        <v>459.71495175204</v>
+        <v>254.8088289671328</v>
       </c>
       <c r="L26" t="n">
         <v>623.1217227102195</v>
@@ -36607,7 +36607,7 @@
         <v>706.8279118671508</v>
       </c>
       <c r="O26" t="n">
-        <v>247.7907373225322</v>
+        <v>621.7934752795119</v>
       </c>
       <c r="P26" t="n">
         <v>170.832705049273</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>14.49988786220595</v>
+        <v>140.5909232026148</v>
       </c>
       <c r="K27" t="n">
         <v>368.1921222761614</v>
       </c>
       <c r="L27" t="n">
-        <v>363.6020637780474</v>
+        <v>557.1043888443148</v>
       </c>
       <c r="M27" t="n">
         <v>236.9137453980211</v>
@@ -36686,7 +36686,7 @@
         <v>257.7383340634389</v>
       </c>
       <c r="O27" t="n">
-        <v>607.1983040996242</v>
+        <v>287.6049436929478</v>
       </c>
       <c r="P27" t="n">
         <v>470.1553547522797</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>102.1575622132663</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>197.2519203689446</v>
+        <v>230.2896941779366</v>
       </c>
       <c r="L28" t="n">
         <v>214.0525725005004</v>
@@ -36768,7 +36768,7 @@
         <v>201.8579470708445</v>
       </c>
       <c r="P28" t="n">
-        <v>148.966080879386</v>
+        <v>218.0858692836621</v>
       </c>
       <c r="Q28" t="n">
         <v>18.85853413789455</v>
@@ -36832,10 +36832,10 @@
         <v>56.25956933852387</v>
       </c>
       <c r="K29" t="n">
-        <v>254.8088289671337</v>
+        <v>350.6713353461006</v>
       </c>
       <c r="L29" t="n">
-        <v>623.1217227102195</v>
+        <v>205.460508159769</v>
       </c>
       <c r="M29" t="n">
         <v>710.1172675738803</v>
@@ -36847,7 +36847,7 @@
         <v>621.7934752795119</v>
       </c>
       <c r="P29" t="n">
-        <v>170.832705049273</v>
+        <v>492.6314132207557</v>
       </c>
       <c r="Q29" t="n">
         <v>79.62890699279993</v>
@@ -36993,10 +36993,10 @@
         <v>230.2896941779366</v>
       </c>
       <c r="L31" t="n">
-        <v>283.1723609047764</v>
+        <v>214.0525725005004</v>
       </c>
       <c r="M31" t="n">
-        <v>236.182489048333</v>
+        <v>305.302277452609</v>
       </c>
       <c r="N31" t="n">
         <v>236.0561088898085</v>
@@ -37069,7 +37069,7 @@
         <v>225.3561845105976</v>
       </c>
       <c r="K32" t="n">
-        <v>144.7136868863226</v>
+        <v>135.5695391808752</v>
       </c>
       <c r="L32" t="n">
         <v>623.1217227102195</v>
@@ -37090,7 +37090,7 @@
         <v>79.62890699279993</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>9.14414770544672</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>14.49988786220595</v>
+        <v>140.5909232026148</v>
       </c>
       <c r="K33" t="n">
-        <v>174.6897972098939</v>
+        <v>368.1921222761614</v>
       </c>
       <c r="L33" t="n">
         <v>557.1043888443148</v>
@@ -37160,7 +37160,7 @@
         <v>257.7383340634389</v>
       </c>
       <c r="O33" t="n">
-        <v>607.1983040996242</v>
+        <v>287.6049436929478</v>
       </c>
       <c r="P33" t="n">
         <v>470.1553547522797</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>69.11978840427598</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>123.4435663696384</v>
       </c>
       <c r="L34" t="n">
-        <v>320.8987003087987</v>
+        <v>214.0525725005004</v>
       </c>
       <c r="M34" t="n">
         <v>236.182489048333</v>
@@ -37239,13 +37239,13 @@
         <v>236.0561088898085</v>
       </c>
       <c r="O34" t="n">
-        <v>201.8579470708445</v>
+        <v>270.9777354751206</v>
       </c>
       <c r="P34" t="n">
         <v>148.966080879386</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.85853413789455</v>
+        <v>125.7046619461928</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>56.25956933852387</v>
+        <v>225.3561845105976</v>
       </c>
       <c r="K35" t="n">
         <v>135.5695391808752</v>
       </c>
       <c r="L35" t="n">
-        <v>396.0523832899395</v>
+        <v>205.460508159769</v>
       </c>
       <c r="M35" t="n">
-        <v>455.7437581809255</v>
+        <v>260.6037340810478</v>
       </c>
       <c r="N35" t="n">
         <v>269.4809874551667</v>
@@ -37321,10 +37321,10 @@
         <v>240.9932940167666</v>
       </c>
       <c r="P35" t="n">
-        <v>170.832705049273</v>
+        <v>175.1529984473435</v>
       </c>
       <c r="Q35" t="n">
-        <v>79.62890699279993</v>
+        <v>291.9438976527046</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>14.49988786220595</v>
+        <v>140.5909232026148</v>
       </c>
       <c r="K36" t="n">
         <v>103.7268852635828</v>
       </c>
       <c r="L36" t="n">
-        <v>455.7437581809255</v>
+        <v>186.2640435408556</v>
       </c>
       <c r="M36" t="n">
-        <v>236.9137453980211</v>
+        <v>455.7437581809256</v>
       </c>
       <c r="N36" t="n">
-        <v>257.7383340634389</v>
+        <v>259.8201431448697</v>
       </c>
       <c r="O36" t="n">
-        <v>455.7437581809255</v>
+        <v>455.7437581809256</v>
       </c>
       <c r="P36" t="n">
         <v>151.6925861123425</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.5021884428282</v>
+        <v>50.97904587815421</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>135.5695391808752</v>
       </c>
       <c r="L38" t="n">
-        <v>205.460508159769</v>
+        <v>422.095792217744</v>
       </c>
       <c r="M38" t="n">
         <v>260.6037340810478</v>
@@ -37558,10 +37558,10 @@
         <v>240.9932940167666</v>
       </c>
       <c r="P38" t="n">
-        <v>175.1529984473428</v>
+        <v>170.832705049273</v>
       </c>
       <c r="Q38" t="n">
-        <v>291.9438976527046</v>
+        <v>79.62890699279993</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,10 +37622,10 @@
         <v>140.5909232026148</v>
       </c>
       <c r="K39" t="n">
-        <v>103.7268852635828</v>
+        <v>368.1921222761614</v>
       </c>
       <c r="L39" t="n">
-        <v>439.5063510273724</v>
+        <v>186.2640435408556</v>
       </c>
       <c r="M39" t="n">
         <v>236.9137453980211</v>
@@ -37640,7 +37640,7 @@
         <v>151.6925861123425</v>
       </c>
       <c r="Q39" t="n">
-        <v>261.0563336140033</v>
+        <v>249.8334040879422</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>240.9932940167666</v>
       </c>
       <c r="P41" t="n">
-        <v>175.1529984473428</v>
+        <v>175.152998447343</v>
       </c>
       <c r="Q41" t="n">
         <v>291.9438976527046</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>30.37963171632775</v>
+        <v>140.5909232026148</v>
       </c>
       <c r="K42" t="n">
-        <v>103.7268852635828</v>
+        <v>356.9691927500999</v>
       </c>
       <c r="L42" t="n">
-        <v>455.7437581809255</v>
+        <v>186.2640435408556</v>
       </c>
       <c r="M42" t="n">
         <v>236.9137453980211</v>
@@ -37874,10 +37874,10 @@
         <v>213.3359848228947</v>
       </c>
       <c r="P42" t="n">
-        <v>455.7437581809255</v>
+        <v>151.6925861123425</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.97904587815421</v>
+        <v>261.0563336140033</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>225.3561845105976</v>
       </c>
       <c r="K44" t="n">
-        <v>139.8898325789456</v>
+        <v>135.5695391808752</v>
       </c>
       <c r="L44" t="n">
         <v>205.460508159769</v>
@@ -38032,7 +38032,7 @@
         <v>240.9932940167666</v>
       </c>
       <c r="P44" t="n">
-        <v>170.832705049273</v>
+        <v>175.152998447343</v>
       </c>
       <c r="Q44" t="n">
         <v>291.9438976527046</v>
@@ -38096,10 +38096,10 @@
         <v>14.49988786220595</v>
       </c>
       <c r="K45" t="n">
-        <v>103.7268852635828</v>
+        <v>368.1921222761614</v>
       </c>
       <c r="L45" t="n">
-        <v>455.7437581809256</v>
+        <v>301.1321493552028</v>
       </c>
       <c r="M45" t="n">
         <v>236.9137453980211</v>
@@ -38111,10 +38111,10 @@
         <v>213.3359848228947</v>
       </c>
       <c r="P45" t="n">
-        <v>455.7437581809256</v>
+        <v>151.6925861123425</v>
       </c>
       <c r="Q45" t="n">
-        <v>66.85878973227653</v>
+        <v>261.0563336140033</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
